--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F44F33-E8D2-4E18-A958-9508F1739303}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4058,7 +4058,7 @@
   </sheetPr>
   <dimension ref="A2:P188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4087,7 +4087,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13165,6 +13165,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -13174,11 +13179,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -15145,11 +15145,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F39:T39"/>
     <mergeCell ref="F41:T41"/>
     <mergeCell ref="F43:T43"/>
     <mergeCell ref="F45:T45"/>
@@ -15159,6 +15154,11 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F37:T37"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F39:T39"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:T17"/>
     <mergeCell ref="H27:M27"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Distribution</t>
-  </si>
-  <si>
-    <t>Imp.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -817,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2489,7 +2486,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2596,31 +2593,31 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>100</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="92" t="s">
         <v>102</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>103</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2636,20 +2633,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="E9" s="83">
+        <v>0</v>
+      </c>
+      <c r="F9" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="83">
-        <v>0</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>107</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2669,20 +2666,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="83">
+        <v>0</v>
+      </c>
+      <c r="F10" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>107</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2702,20 +2699,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="83">
-        <v>0</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>107</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2735,20 +2732,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2768,20 +2765,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2801,20 +2798,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="82" t="s">
-        <v>111</v>
-      </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2834,20 +2831,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -2867,20 +2864,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2900,20 +2897,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -2933,20 +2930,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -2966,20 +2963,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="82" t="s">
-        <v>106</v>
-      </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -2999,20 +2996,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3032,20 +3029,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>111</v>
-      </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3065,20 +3062,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3098,20 +3095,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3131,20 +3128,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="83">
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>113</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3164,20 +3161,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="83">
+        <v>0</v>
+      </c>
+      <c r="F25" s="84" t="s">
         <v>112</v>
-      </c>
-      <c r="E25" s="83">
-        <v>0</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>113</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3197,20 +3194,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="83">
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="83">
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>113</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3230,12 +3227,12 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="97">
         <v>0</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3279,31 +3276,31 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="D30" s="87" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="92" t="s">
         <v>102</v>
-      </c>
-      <c r="J30" s="92" t="s">
-        <v>103</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>30</v>
@@ -3319,20 +3316,20 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="83">
         <v>0</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -3352,20 +3349,20 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="83">
         <v>0</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -3385,20 +3382,20 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="83">
         <v>0</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="85">
         <v>0</v>
@@ -3418,20 +3415,20 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="83">
         <v>0</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -3451,20 +3448,20 @@
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="83">
         <v>0</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -3484,20 +3481,20 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="83">
         <v>0</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="85">
         <v>0</v>
@@ -3517,20 +3514,20 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="83">
         <v>0</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -3550,20 +3547,20 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3583,20 +3580,20 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="83">
         <v>0</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39" s="85">
         <v>0</v>
@@ -3616,20 +3613,20 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="83">
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -3649,20 +3646,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3682,20 +3679,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3715,12 +3712,12 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="39"/>
       <c r="D43" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="97">
         <v>0</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="C45" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I45" s="60"/>
     </row>
@@ -3755,11 +3752,11 @@
         <v>23</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" s="101"/>
       <c r="H46" s="101" t="s">
@@ -3795,13 +3792,13 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="C49" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="109"/>
       <c r="E49" s="109"/>
       <c r="F49" s="112"/>
       <c r="G49" s="114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="109"/>
       <c r="I49" s="115"/>
@@ -4087,7 +4084,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="66">
         <v>0</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="70">
         <v>0</v>
@@ -4438,7 +4435,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
@@ -4451,13 +4448,13 @@
       <c r="K14" s="131"/>
       <c r="L14" s="132"/>
       <c r="M14" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="132" t="s">
+      <c r="O14" s="133" t="s">
         <v>63</v>
-      </c>
-      <c r="O14" s="133" t="s">
-        <v>64</v>
       </c>
       <c r="P14" s="130">
         <v>7</v>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="138" t="s">
         <v>55</v>
@@ -4629,7 +4626,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="66">
         <v>0</v>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="70">
         <v>0</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
@@ -4784,10 +4781,10 @@
       <c r="L23" s="132"/>
       <c r="M23" s="132"/>
       <c r="N23" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="133" t="s">
         <v>66</v>
-      </c>
-      <c r="O23" s="133" t="s">
-        <v>67</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
@@ -4795,7 +4792,7 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="138" t="s">
         <v>55</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="66">
         <v>0</v>
@@ -5053,7 +5050,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="70">
         <v>0</v>
@@ -5100,7 +5097,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="132"/>
@@ -5113,13 +5110,13 @@
       <c r="K32" s="131"/>
       <c r="L32" s="132"/>
       <c r="M32" s="132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="133" t="s">
         <v>69</v>
-      </c>
-      <c r="O32" s="133" t="s">
-        <v>70</v>
       </c>
       <c r="P32" s="130">
         <v>11</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="138" t="s">
         <v>55</v>
@@ -5291,7 +5288,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="66">
         <v>0</v>
@@ -5385,7 +5382,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="70">
         <v>0</v>
@@ -5432,7 +5429,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="132"/>
@@ -5445,13 +5442,13 @@
       <c r="K41" s="131"/>
       <c r="L41" s="132"/>
       <c r="M41" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="N41" s="132" t="s">
+      <c r="O41" s="133" t="s">
         <v>63</v>
-      </c>
-      <c r="O41" s="133" t="s">
-        <v>64</v>
       </c>
       <c r="P41" s="130">
         <v>7</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="138" t="s">
         <v>55</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="66">
         <v>0</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="70">
         <v>0</v>
@@ -5764,7 +5761,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="132"/>
@@ -5778,10 +5775,10 @@
       <c r="L50" s="132"/>
       <c r="M50" s="132"/>
       <c r="N50" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" s="133" t="s">
         <v>66</v>
-      </c>
-      <c r="O50" s="133" t="s">
-        <v>67</v>
       </c>
       <c r="P50" s="130">
         <v>7</v>
@@ -5789,7 +5786,7 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="138" t="s">
         <v>55</v>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="66">
         <v>0</v>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="70">
         <v>0</v>
@@ -6094,7 +6091,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="131"/>
       <c r="D59" s="132"/>
@@ -6107,13 +6104,13 @@
       <c r="K59" s="131"/>
       <c r="L59" s="132"/>
       <c r="M59" s="132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N59" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="O59" s="133" t="s">
         <v>69</v>
-      </c>
-      <c r="O59" s="133" t="s">
-        <v>70</v>
       </c>
       <c r="P59" s="130">
         <v>11</v>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="138" t="s">
         <v>55</v>
@@ -6285,7 +6282,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C65" s="66">
         <v>0</v>
@@ -6379,7 +6376,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -6426,7 +6423,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="132"/>
@@ -6439,13 +6436,13 @@
       <c r="K68" s="131"/>
       <c r="L68" s="132"/>
       <c r="M68" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="N68" s="132" t="s">
+      <c r="O68" s="133" t="s">
         <v>63</v>
-      </c>
-      <c r="O68" s="133" t="s">
-        <v>64</v>
       </c>
       <c r="P68" s="130">
         <v>7</v>
@@ -6453,7 +6450,7 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="138" t="s">
         <v>55</v>
@@ -6617,7 +6614,7 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="B74" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C74" s="66">
         <v>0</v>
@@ -6711,7 +6708,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -6758,7 +6755,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="132"/>
@@ -6772,10 +6769,10 @@
       <c r="L77" s="132"/>
       <c r="M77" s="132"/>
       <c r="N77" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="O77" s="133" t="s">
         <v>66</v>
-      </c>
-      <c r="O77" s="133" t="s">
-        <v>67</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
@@ -6783,7 +6780,7 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="138" t="s">
         <v>55</v>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="B83" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C83" s="66">
         <v>0</v>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -7088,7 +7085,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="132"/>
@@ -7101,13 +7098,13 @@
       <c r="K86" s="131"/>
       <c r="L86" s="132"/>
       <c r="M86" s="132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N86" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="O86" s="133" t="s">
         <v>69</v>
-      </c>
-      <c r="O86" s="133" t="s">
-        <v>70</v>
       </c>
       <c r="P86" s="130">
         <v>11</v>
@@ -7115,7 +7112,7 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="138" t="s">
         <v>55</v>
@@ -7233,7 +7230,7 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="B92" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C92" s="66"/>
       <c r="D92" s="36"/>
@@ -7246,16 +7243,16 @@
       <c r="K92" s="66"/>
       <c r="L92" s="36"/>
       <c r="M92" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O92" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -7273,21 +7270,21 @@
       <c r="K93" s="73"/>
       <c r="L93" s="38"/>
       <c r="M93" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N93" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O93" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P93" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="70"/>
       <c r="D94" s="71"/>
@@ -7300,21 +7297,21 @@
       <c r="K94" s="70"/>
       <c r="L94" s="71"/>
       <c r="M94" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N94" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O94" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P94" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="131"/>
       <c r="D95" s="132"/>
@@ -7333,23 +7330,23 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="138" t="s">
         <v>79</v>
-      </c>
-      <c r="C97" s="138" t="s">
-        <v>80</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="139"/>
       <c r="K97" s="140"/>
       <c r="L97" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M97" s="139"/>
       <c r="N97" s="139"/>
@@ -7497,7 +7494,7 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="B101" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C101" s="66">
         <v>1600.0000000000002</v>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" s="70">
         <v>40000</v>
@@ -7638,11 +7635,11 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E104" s="132"/>
       <c r="F104" s="132"/>
@@ -7661,23 +7658,23 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="139"/>
       <c r="K106" s="140"/>
       <c r="L106" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M106" s="139"/>
       <c r="N106" s="139"/>
@@ -7825,7 +7822,7 @@
     </row>
     <row r="110" ht="24" customHeight="1">
       <c r="B110" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C110" s="66">
         <v>16</v>
@@ -7919,7 +7916,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="70">
         <v>400</v>
@@ -7966,11 +7963,11 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E113" s="132"/>
       <c r="F113" s="132"/>
@@ -7989,23 +7986,23 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="139"/>
       <c r="K115" s="140"/>
       <c r="L115" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M115" s="139"/>
       <c r="N115" s="139"/>
@@ -8153,7 +8150,7 @@
     </row>
     <row r="119" ht="24" customHeight="1">
       <c r="B119" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C119" s="66">
         <v>1616.0000000000002</v>
@@ -8247,7 +8244,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121" s="70">
         <v>40400</v>
@@ -8294,11 +8291,11 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E122" s="132"/>
       <c r="F122" s="132"/>
@@ -8317,23 +8314,23 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="139"/>
       <c r="K124" s="140"/>
       <c r="L124" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M124" s="139"/>
       <c r="N124" s="139"/>
@@ -8481,7 +8478,7 @@
     </row>
     <row r="128" ht="24" customHeight="1">
       <c r="B128" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C128" s="66">
         <v>1600.0000000000002</v>
@@ -8575,7 +8572,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C130" s="70">
         <v>40000</v>
@@ -8622,11 +8619,11 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E131" s="132"/>
       <c r="F131" s="132"/>
@@ -8645,23 +8642,23 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="139"/>
       <c r="K133" s="140"/>
       <c r="L133" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M133" s="139"/>
       <c r="N133" s="139"/>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="137" ht="24" customHeight="1">
       <c r="B137" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C137" s="66">
         <v>3976.0000000000005</v>
@@ -8903,7 +8900,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="70">
         <v>99400</v>
@@ -8950,11 +8947,11 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E140" s="132"/>
       <c r="F140" s="132"/>
@@ -8973,23 +8970,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -9137,7 +9134,7 @@
     </row>
     <row r="146" ht="24" customHeight="1">
       <c r="B146" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C146" s="66">
         <v>5576.0000000000009</v>
@@ -9231,7 +9228,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148" s="70">
         <v>139400</v>
@@ -9278,11 +9275,11 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E149" s="132"/>
       <c r="F149" s="132"/>
@@ -9301,23 +9298,23 @@
     </row>
     <row r="151">
       <c r="B151" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -9465,7 +9462,7 @@
     </row>
     <row r="155" ht="24" customHeight="1">
       <c r="B155" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C155" s="66">
         <v>800.00000000000011</v>
@@ -9559,7 +9556,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C157" s="70">
         <v>20000</v>
@@ -9606,11 +9603,11 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -9629,23 +9626,23 @@
     </row>
     <row r="160">
       <c r="B160" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -9793,7 +9790,7 @@
     </row>
     <row r="164" ht="24" customHeight="1">
       <c r="B164" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C164" s="66">
         <v>8</v>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C166" s="70">
         <v>200</v>
@@ -9934,11 +9931,11 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -9957,23 +9954,23 @@
     </row>
     <row r="169">
       <c r="B169" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -10121,7 +10118,7 @@
     </row>
     <row r="173" ht="24" customHeight="1">
       <c r="B173" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C173" s="66">
         <v>808.00000000000011</v>
@@ -10215,7 +10212,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C175" s="70">
         <v>20200</v>
@@ -10262,11 +10259,11 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -10285,23 +10282,23 @@
     </row>
     <row r="178">
       <c r="B178" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -10401,13 +10398,13 @@
     </row>
     <row r="182" ht="24" customHeight="1">
       <c r="B182" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D182" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="58"/>
@@ -10421,7 +10418,7 @@
       <c r="N182" s="36"/>
       <c r="O182" s="58"/>
       <c r="P182" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" ht="24" customHeight="1">
@@ -10429,10 +10426,10 @@
         <v>30</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="74"/>
@@ -10446,18 +10443,18 @@
       <c r="N183" s="38"/>
       <c r="O183" s="74"/>
       <c r="P183" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C184" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D184" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E184" s="71"/>
       <c r="F184" s="72"/>
@@ -10471,12 +10468,12 @@
       <c r="N184" s="71"/>
       <c r="O184" s="72"/>
       <c r="P184" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132"/>
@@ -10663,7 +10660,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -10696,7 +10693,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -10957,7 +10954,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -13165,11 +13162,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -13179,6 +13171,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -13213,97 +13210,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -13364,10 +13361,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13402,24 +13399,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -13431,7 +13428,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13451,7 +13448,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -13466,7 +13463,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13477,14 +13474,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13537,14 +13534,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -13597,14 +13594,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -13657,14 +13654,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -13717,14 +13714,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -13777,14 +13774,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -13837,14 +13834,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -13899,7 +13896,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -13952,7 +13949,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -13967,7 +13964,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -13978,14 +13975,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -14038,14 +14035,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -14098,14 +14095,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -14158,14 +14155,14 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -14218,14 +14215,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -14278,14 +14275,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -14338,14 +14335,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -14400,7 +14397,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -14468,7 +14465,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14479,14 +14476,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14539,14 +14536,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -14599,14 +14596,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -14659,14 +14656,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -14719,14 +14716,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -14779,14 +14776,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -14839,14 +14836,14 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -14901,7 +14898,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="51">
         <v>0</v>
@@ -14959,7 +14956,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="117"/>
       <c r="F37" s="145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
@@ -15001,7 +14998,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
@@ -15084,7 +15081,7 @@
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43" s="145"/>
       <c r="H43" s="145"/>
@@ -15126,7 +15123,7 @@
       </c>
       <c r="D45" s="55"/>
       <c r="F45" s="136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="136"/>
       <c r="H45" s="136"/>
@@ -15145,6 +15142,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F39:T39"/>
     <mergeCell ref="F41:T41"/>
     <mergeCell ref="F43:T43"/>
     <mergeCell ref="F45:T45"/>
@@ -15154,11 +15156,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F37:T37"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F39:T39"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:T17"/>
     <mergeCell ref="H27:M27"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -228,7 +228,7 @@
     <t>3/24, 3/28</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EF :30s </t>
+    <t>1Q '20 EF :30s</t>
   </si>
   <si>
     <t>3/16-17, 3/21</t>
@@ -249,7 +249,7 @@
     <t>1Q '20 EM :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EM :30s </t>
+    <t>1Q '20 EM :30s</t>
   </si>
   <si>
     <t>1Q '20 EM Total</t>
@@ -258,7 +258,7 @@
     <t>1Q '20 MDN :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 MDN :30s </t>
+    <t>1Q '20 MDN :30s</t>
   </si>
   <si>
     <t>1Q '20 MDN Total</t>
@@ -285,7 +285,7 @@
     <t>4/7, 4/9-11</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EF :30s </t>
+    <t>2Q '20 EF :30s</t>
   </si>
   <si>
     <t>4/8-10</t>
@@ -300,7 +300,7 @@
     <t>2Q '20 EM :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EM :30s </t>
+    <t>2Q '20 EM :30s</t>
   </si>
   <si>
     <t>2Q '20 EM Total</t>
@@ -309,7 +309,7 @@
     <t>2Q '20 MDN :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 MDN :30s </t>
+    <t>2Q '20 MDN :30s</t>
   </si>
   <si>
     <t>2Q '20 MDN Total</t>
@@ -354,10 +354,13 @@
     <t>3/9/2020</t>
   </si>
   <si>
-    <t>:45s eq.</t>
+    <t>:30s</t>
   </si>
   <si>
     <t>Even</t>
+  </si>
+  <si>
+    <t>:45s eq.</t>
   </si>
   <si>
     <t>EM</t>
@@ -372,10 +375,10 @@
     <t>3/23/2020</t>
   </si>
   <si>
-    <t>:30s</t>
+    <t>1Q '20 Totals</t>
   </si>
   <si>
-    <t>1Q '20 Totals</t>
+    <t>45 eq.</t>
   </si>
   <si>
     <t>Q2 2020</t>
@@ -836,9 +839,6 @@
   </si>
   <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>45 eq.</t>
   </si>
   <si>
     <t>30</t>
@@ -2458,7 +2458,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T60"/>
+  <dimension ref="A2:T73"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
       <selection activeCell="C5" sqref="C5"/>
@@ -2652,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="85">
-        <v>40000</v>
+        <v>400</v>
       </c>
       <c r="I9" s="83">
         <v>0</v>
       </c>
       <c r="J9" s="93">
-        <v>1600.0000000000002</v>
+        <v>16</v>
       </c>
       <c r="K9" s="95">
         <v>25</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>105</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="85">
-        <v>20000</v>
+        <v>99400</v>
       </c>
       <c r="I11" s="83">
         <v>0</v>
       </c>
       <c r="J11" s="93">
-        <v>800.00000000000011</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K11" s="95">
         <v>25</v>
@@ -2736,16 +2736,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2769,10 +2769,10 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="85">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="I13" s="83">
         <v>0</v>
       </c>
       <c r="J13" s="93">
-        <v>1600.0000000000002</v>
+        <v>8</v>
       </c>
       <c r="K13" s="95">
         <v>25</v>
@@ -2802,16 +2802,16 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2850,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="85">
-        <v>40000</v>
+        <v>400</v>
       </c>
       <c r="I15" s="83">
         <v>0</v>
       </c>
       <c r="J15" s="93">
-        <v>1600.0000000000002</v>
+        <v>16</v>
       </c>
       <c r="K15" s="95">
         <v>25</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>111</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="85">
-        <v>20000</v>
+        <v>99400</v>
       </c>
       <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="93">
-        <v>800.00000000000011</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K17" s="95">
         <v>25</v>
@@ -2937,25 +2937,25 @@
         <v>109</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
       </c>
       <c r="H18" s="85">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="83">
         <v>0</v>
       </c>
       <c r="J18" s="93">
-        <v>8</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K18" s="95">
         <v>25</v>
@@ -2967,28 +2967,28 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
       </c>
       <c r="H19" s="85">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I19" s="83">
         <v>0</v>
       </c>
       <c r="J19" s="93">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K19" s="95">
         <v>25</v>
@@ -3000,28 +3000,28 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0</v>
+      </c>
+      <c r="F20" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="83">
-        <v>0</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>112</v>
-      </c>
       <c r="G20" s="85">
         <v>0</v>
       </c>
       <c r="H20" s="85">
-        <v>99400</v>
+        <v>20000</v>
       </c>
       <c r="I20" s="83">
         <v>0</v>
       </c>
       <c r="J20" s="93">
-        <v>3976.0000000000005</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K20" s="95">
         <v>25</v>
@@ -3033,28 +3033,28 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
       </c>
       <c r="H21" s="85">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I21" s="83">
         <v>0</v>
       </c>
       <c r="J21" s="93">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K21" s="95">
         <v>25</v>
@@ -3069,25 +3069,25 @@
         <v>104</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
       </c>
       <c r="H22" s="85">
-        <v>400</v>
+        <v>40000</v>
       </c>
       <c r="I22" s="83">
         <v>0</v>
       </c>
       <c r="J22" s="93">
-        <v>16</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K22" s="95">
         <v>25</v>
@@ -3099,16 +3099,16 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3135,25 +3135,25 @@
         <v>109</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
       </c>
       <c r="H24" s="85">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="I24" s="83">
         <v>0</v>
       </c>
       <c r="J24" s="93">
-        <v>8</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K24" s="95">
         <v>25</v>
@@ -3165,28 +3165,28 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
       </c>
       <c r="H25" s="85">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I25" s="83">
         <v>0</v>
       </c>
       <c r="J25" s="93">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K25" s="95">
         <v>25</v>
@@ -3198,38 +3198,34 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="83">
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="83">
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>112</v>
-      </c>
       <c r="G26" s="85">
         <v>0</v>
       </c>
       <c r="H26" s="85">
-        <v>99400</v>
+        <v>20000</v>
       </c>
       <c r="I26" s="83">
         <v>0</v>
       </c>
       <c r="J26" s="93">
-        <v>3976.0000000000005</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K26" s="95">
         <v>25</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
-      <c r="A27" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="4"/>
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
         <v>113</v>
@@ -3258,7 +3254,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3319,32 +3315,30 @@
         <v>103</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>115</v>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82">
+        <v>43899</v>
       </c>
       <c r="E31" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="85">
-        <v>0</v>
-      </c>
-      <c r="H31" s="85">
-        <v>40000</v>
-      </c>
-      <c r="I31" s="83">
-        <v>0</v>
-      </c>
-      <c r="J31" s="93">
-        <v>1600.0000000000002</v>
-      </c>
-      <c r="K31" s="95">
-        <v>25</v>
+        <v>114</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="95" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -3352,32 +3346,30 @@
         <v>107</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>115</v>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82">
+        <v>43906</v>
       </c>
       <c r="E32" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="85">
-        <v>0</v>
-      </c>
-      <c r="H32" s="85">
-        <v>40000</v>
-      </c>
-      <c r="I32" s="83">
-        <v>0</v>
-      </c>
-      <c r="J32" s="93">
-        <v>1600.0000000000002</v>
-      </c>
-      <c r="K32" s="95">
-        <v>25</v>
+        <v>114</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="95" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -3385,182 +3377,133 @@
         <v>103</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="82" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="82">
+        <v>43913</v>
+      </c>
+      <c r="E33" s="83">
+        <v>1</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1">
+      <c r="C34" s="39"/>
+      <c r="D34" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="97">
+        <v>3</v>
+      </c>
+      <c r="F34" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="83">
-        <v>0</v>
-      </c>
-      <c r="F33" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="85">
-        <v>0</v>
-      </c>
-      <c r="H33" s="85">
-        <v>20000</v>
-      </c>
-      <c r="I33" s="83">
-        <v>0</v>
-      </c>
-      <c r="J33" s="93">
-        <v>800.00000000000011</v>
-      </c>
-      <c r="K33" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1">
-      <c r="A34" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="83">
-        <v>0</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="85">
-        <v>0</v>
-      </c>
-      <c r="H34" s="85">
-        <v>40000</v>
-      </c>
-      <c r="I34" s="83">
-        <v>0</v>
-      </c>
-      <c r="J34" s="93">
-        <v>1600.0000000000002</v>
-      </c>
-      <c r="K34" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1">
-      <c r="A35" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="83">
-        <v>0</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="85">
-        <v>0</v>
-      </c>
-      <c r="H35" s="85">
-        <v>40000</v>
-      </c>
-      <c r="I35" s="83">
-        <v>0</v>
-      </c>
-      <c r="J35" s="93">
-        <v>1600.0000000000002</v>
-      </c>
-      <c r="K35" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1">
-      <c r="A36" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="83">
-        <v>0</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="85">
-        <v>0</v>
-      </c>
-      <c r="H36" s="85">
-        <v>20000</v>
-      </c>
-      <c r="I36" s="83">
-        <v>0</v>
-      </c>
-      <c r="J36" s="93">
-        <v>800.00000000000011</v>
-      </c>
-      <c r="K36" s="95">
-        <v>25</v>
-      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="83">
-        <v>0</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="85">
-        <v>0</v>
-      </c>
-      <c r="H37" s="85">
-        <v>200</v>
-      </c>
-      <c r="I37" s="83">
-        <v>0</v>
-      </c>
-      <c r="J37" s="93">
-        <v>8</v>
-      </c>
-      <c r="K37" s="95">
+        <v>97</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="87" t="s">
         <v>25</v>
       </c>
+      <c r="I37" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3580,32 +3523,32 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0</v>
+      </c>
+      <c r="F39" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="83">
-        <v>0</v>
-      </c>
-      <c r="F39" s="84" t="s">
-        <v>112</v>
-      </c>
       <c r="G39" s="85">
         <v>0</v>
       </c>
       <c r="H39" s="85">
-        <v>99400</v>
+        <v>40000</v>
       </c>
       <c r="I39" s="83">
         <v>0</v>
       </c>
       <c r="J39" s="93">
-        <v>3976.0000000000005</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K39" s="95">
         <v>25</v>
@@ -3613,7 +3556,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
@@ -3626,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
       </c>
       <c r="H40" s="85">
-        <v>200</v>
+        <v>99400</v>
       </c>
       <c r="I40" s="83">
         <v>0</v>
       </c>
       <c r="J40" s="93">
-        <v>8</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K40" s="95">
         <v>25</v>
@@ -3646,11 +3589,11 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D41" s="82" t="s">
         <v>116</v>
@@ -3659,19 +3602,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
       </c>
       <c r="H41" s="85">
-        <v>400</v>
+        <v>40000</v>
       </c>
       <c r="I41" s="83">
         <v>0</v>
       </c>
       <c r="J41" s="93">
-        <v>16</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K41" s="95">
         <v>25</v>
@@ -3679,11 +3622,11 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" s="82" t="s">
         <v>116</v>
@@ -3692,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
       </c>
       <c r="H42" s="85">
-        <v>99400</v>
+        <v>200</v>
       </c>
       <c r="I42" s="83">
         <v>0</v>
       </c>
       <c r="J42" s="93">
-        <v>3976.0000000000005</v>
+        <v>8</v>
       </c>
       <c r="K42" s="95">
         <v>25</v>
@@ -3712,309 +3655,683 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0</v>
+      </c>
+      <c r="F43" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="85">
+        <v>0</v>
+      </c>
+      <c r="H43" s="85">
+        <v>20000</v>
+      </c>
+      <c r="I43" s="83">
+        <v>0</v>
+      </c>
+      <c r="J43" s="93">
+        <v>800.00000000000011</v>
+      </c>
+      <c r="K43" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="24" customHeight="1">
+      <c r="A44" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="91" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="97">
-        <v>0</v>
-      </c>
-      <c r="F43" s="90" t="s">
+      <c r="E44" s="83">
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="85">
+        <v>0</v>
+      </c>
+      <c r="H44" s="85">
+        <v>400</v>
+      </c>
+      <c r="I44" s="83">
+        <v>0</v>
+      </c>
+      <c r="J44" s="93">
+        <v>16</v>
+      </c>
+      <c r="K44" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="24" customHeight="1">
+      <c r="A45" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="83">
+        <v>0</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="85">
+        <v>0</v>
+      </c>
+      <c r="H45" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I45" s="83">
+        <v>0</v>
+      </c>
+      <c r="J45" s="93">
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="K45" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="24" customHeight="1">
+      <c r="A46" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="83">
+        <v>0</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="85">
+        <v>0</v>
+      </c>
+      <c r="H46" s="85">
+        <v>99400</v>
+      </c>
+      <c r="I46" s="83">
+        <v>0</v>
+      </c>
+      <c r="J46" s="93">
+        <v>3976.0000000000005</v>
+      </c>
+      <c r="K46" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="24" customHeight="1">
+      <c r="A47" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="83">
+        <v>0</v>
+      </c>
+      <c r="F47" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="85">
+        <v>0</v>
+      </c>
+      <c r="H47" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I47" s="83">
+        <v>0</v>
+      </c>
+      <c r="J47" s="93">
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="K47" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="24" customHeight="1">
+      <c r="A48" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="83">
+        <v>0</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="85">
+        <v>0</v>
+      </c>
+      <c r="H48" s="85">
+        <v>200</v>
+      </c>
+      <c r="I48" s="83">
+        <v>0</v>
+      </c>
+      <c r="J48" s="93">
+        <v>8</v>
+      </c>
+      <c r="K48" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="24" customHeight="1">
+      <c r="A49" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="83">
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="85">
+        <v>0</v>
+      </c>
+      <c r="H49" s="85">
+        <v>20000</v>
+      </c>
+      <c r="I49" s="83">
+        <v>0</v>
+      </c>
+      <c r="J49" s="93">
+        <v>800.00000000000011</v>
+      </c>
+      <c r="K49" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="24" customHeight="1">
+      <c r="C50" s="39"/>
+      <c r="D50" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="97">
+        <v>0</v>
+      </c>
+      <c r="F50" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="96" t="s">
+      <c r="G50" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H50" s="89">
         <v>400000</v>
       </c>
-      <c r="I43" s="90" t="s">
+      <c r="I50" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="94">
+      <c r="J50" s="94">
         <v>16000</v>
       </c>
-      <c r="K43" s="98">
+      <c r="K50" s="98">
         <v>25</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1">
-      <c r="C45" s="53" t="s">
+    <row r="52">
+      <c r="C52" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+    </row>
+    <row r="53" ht="24" customHeight="1">
+      <c r="A53" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+    </row>
+    <row r="54" ht="24" customHeight="1">
+      <c r="A54" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82">
+        <v>43920</v>
+      </c>
+      <c r="E54" s="83">
+        <v>1</v>
+      </c>
+      <c r="F54" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" ht="24" customHeight="1">
+      <c r="A55" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="82">
+        <v>43927</v>
+      </c>
+      <c r="E55" s="83">
+        <v>1</v>
+      </c>
+      <c r="F55" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" ht="24" customHeight="1">
+      <c r="C56" s="39"/>
+      <c r="D56" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="I45" s="60"/>
-    </row>
-    <row r="46" ht="24" customHeight="1">
-      <c r="C46" s="100" t="s">
+      <c r="E56" s="97">
+        <v>2</v>
+      </c>
+      <c r="F56" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" ht="24" customHeight="1">
+      <c r="C58" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="60"/>
+    </row>
+    <row r="59" ht="24" customHeight="1">
+      <c r="C59" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D59" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101" t="s">
+      <c r="E59" s="101"/>
+      <c r="F59" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101" t="s">
+      <c r="G59" s="101"/>
+      <c r="H59" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="102"/>
-    </row>
-    <row r="47" ht="24" customHeight="1">
-      <c r="C47" s="103">
-        <v>0</v>
-      </c>
-      <c r="D47" s="105">
+      <c r="I59" s="102"/>
+    </row>
+    <row r="60" ht="24" customHeight="1">
+      <c r="C60" s="103">
+        <v>0</v>
+      </c>
+      <c r="D60" s="105">
         <v>1000000</v>
       </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="104">
+      <c r="E60" s="105"/>
+      <c r="F60" s="104">
         <v>40000</v>
       </c>
-      <c r="G47" s="104"/>
-      <c r="H47" s="107">
+      <c r="G60" s="104"/>
+      <c r="H60" s="107">
         <v>25</v>
       </c>
-      <c r="I47" s="106"/>
-    </row>
-    <row r="48" ht="42.95" customHeight="1">
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-    </row>
-    <row r="49" ht="24" customHeight="1">
-      <c r="C49" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="114" t="s">
+      <c r="I60" s="106"/>
+    </row>
+    <row r="61" ht="42.95" customHeight="1">
+      <c r="C61" s="110"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+    </row>
+    <row r="62" ht="24" customHeight="1">
+      <c r="C62" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="109"/>
-      <c r="I49" s="115"/>
-    </row>
-    <row r="50" ht="39.95" customHeight="1">
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-    </row>
-    <row r="51" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C51" s="55" t="s">
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="109"/>
+      <c r="I62" s="115"/>
+    </row>
+    <row r="63" ht="39.95" customHeight="1">
+      <c r="C63" s="110"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+    </row>
+    <row r="64" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C64" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="136" t="str">
+      <c r="D64" s="136" t="str">
         <f>'PROPOSAL'!F37</f>
         <v>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</v>
       </c>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-    </row>
-    <row r="52" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C52" s="2"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-    </row>
-    <row r="53" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C53" s="55" t="s">
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="126"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="126"/>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
+    </row>
+    <row r="65" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C65" s="2"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+    </row>
+    <row r="66" ht="48" customHeight="1" s="117" customFormat="1">
+      <c r="C66" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="136" t="str">
+      <c r="D66" s="136" t="str">
         <f>'PROPOSAL'!F39</f>
         <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</v>
       </c>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-    </row>
-    <row r="54" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C54" s="2"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-    </row>
-    <row r="55" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C55" s="55" t="s">
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="126"/>
+      <c r="Q66" s="126"/>
+      <c r="R66" s="126"/>
+    </row>
+    <row r="67" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C67" s="2"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="118"/>
+      <c r="N67" s="118"/>
+      <c r="O67" s="118"/>
+      <c r="P67" s="118"/>
+      <c r="Q67" s="118"/>
+      <c r="R67" s="118"/>
+    </row>
+    <row r="68" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C68" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-    </row>
-    <row r="56" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C56" s="2"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-    </row>
-    <row r="57" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C57" s="55" t="s">
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="136"/>
+      <c r="K68" s="136"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="126"/>
+      <c r="P68" s="126"/>
+      <c r="Q68" s="126"/>
+      <c r="R68" s="126"/>
+    </row>
+    <row r="69" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C69" s="2"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="118"/>
+      <c r="R69" s="118"/>
+    </row>
+    <row r="70" ht="48.95" customHeight="1" s="117" customFormat="1">
+      <c r="C70" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="136" t="str">
+      <c r="D70" s="136" t="str">
         <f>'PROPOSAL'!F43</f>
         <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
       </c>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="126"/>
-      <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-    </row>
-    <row r="58" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C58" s="2"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-    </row>
-    <row r="59" ht="147" customHeight="1" s="99" customFormat="1">
-      <c r="C59" s="55" t="s">
+      <c r="E70" s="136"/>
+      <c r="F70" s="136"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="136"/>
+      <c r="I70" s="136"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="136"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="126"/>
+      <c r="Q70" s="126"/>
+      <c r="R70" s="126"/>
+    </row>
+    <row r="71" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C71" s="2"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="118"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="118"/>
+      <c r="O71" s="118"/>
+      <c r="P71" s="118"/>
+      <c r="Q71" s="118"/>
+      <c r="R71" s="118"/>
+    </row>
+    <row r="72" ht="147" customHeight="1" s="99" customFormat="1">
+      <c r="C72" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="136" t="str">
+      <c r="D72" s="136" t="str">
         <f>'PROPOSAL'!F45</f>
         <v>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</v>
       </c>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="77"/>
-    </row>
-    <row r="60" ht="24" customHeight="1">
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="135"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
+      <c r="G72" s="136"/>
+      <c r="H72" s="136"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="136"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+    </row>
+    <row r="73" ht="24" customHeight="1">
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D60:K60"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="D73:K73"/>
+    <mergeCell ref="D72:K72"/>
+    <mergeCell ref="D64:K64"/>
+    <mergeCell ref="D66:K66"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="D70:K70"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:K1048576">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -13210,97 +13527,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -13361,10 +13678,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13399,24 +13716,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -13428,7 +13745,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13463,7 +13780,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13481,7 +13798,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13541,7 +13858,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -13598,10 +13915,10 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -13658,10 +13975,10 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -13718,7 +14035,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>147</v>
@@ -13838,7 +14155,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>147</v>
@@ -13949,7 +14266,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -13964,7 +14281,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -13982,7 +14299,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -14042,7 +14359,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -14099,10 +14416,10 @@
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -14159,10 +14476,10 @@
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -14219,7 +14536,7 @@
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>147</v>
@@ -14339,7 +14656,7 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>147</v>
@@ -14465,7 +14782,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14483,7 +14800,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14543,7 +14860,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -14600,10 +14917,10 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -14660,10 +14977,10 @@
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -14720,7 +15037,7 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>147</v>
@@ -14840,7 +15157,7 @@
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>147</v>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Posting</t>
+  </si>
+  <si>
+    <t>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</t>
   </si>
   <si>
     <t>1Q '20 EF :45s eq.</t>
@@ -400,6 +403,15 @@
   </si>
   <si>
     <t>Reciept Acknowledged:</t>
+  </si>
+  <si>
+    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
+  </si>
+  <si>
+    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
+  </si>
+  <si>
+    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
   <si>
     <t>Broadcast Standard Terms and Conditions</t>
@@ -817,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -845,18 +857,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
-  </si>
-  <si>
-    <t>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</t>
-  </si>
-  <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
-  </si>
-  <si>
-    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
   </sheetPr>
   <dimension ref="A2:T73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0" tabSelected="1">
+      <selection activeCell="D18" sqref="D18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2593,31 +2593,31 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2633,20 +2633,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2666,20 +2666,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2699,20 +2699,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2732,20 +2732,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0</v>
+      </c>
+      <c r="F12" s="84" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>108</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2765,20 +2765,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2798,20 +2798,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2831,20 +2831,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -2864,20 +2864,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2897,20 +2897,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -2930,20 +2930,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>108</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -2963,20 +2963,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -2996,20 +2996,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3029,20 +3029,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3062,20 +3062,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3095,20 +3095,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3128,20 +3128,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="s">
         <v>109</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="83">
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>108</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3161,20 +3161,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3194,20 +3194,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     <row r="27" ht="24" customHeight="1">
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" s="97">
         <v>0</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3272,31 +3272,31 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>30</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81"/>
@@ -3323,27 +3323,27 @@
         <v>1</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G31" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" s="93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" s="95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81"/>
@@ -3354,27 +3354,27 @@
         <v>1</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G32" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" s="93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" s="95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81"/>
@@ -3385,28 +3385,28 @@
         <v>1</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" s="93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" s="95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="C34" s="39"/>
       <c r="D34" s="91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" s="97">
         <v>3</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="36">
       <c r="C36" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -3450,31 +3450,31 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G37" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37" s="88" t="s">
         <v>30</v>
@@ -3490,20 +3490,20 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3523,20 +3523,20 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="83">
         <v>0</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G39" s="85">
         <v>0</v>
@@ -3556,20 +3556,20 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E40" s="83">
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -3589,20 +3589,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="83">
+        <v>0</v>
+      </c>
+      <c r="F41" s="84" t="s">
         <v>109</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="83">
-        <v>0</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>108</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3622,20 +3622,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3655,20 +3655,20 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" s="83">
         <v>0</v>
       </c>
       <c r="F43" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G43" s="85">
         <v>0</v>
@@ -3688,20 +3688,20 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="83">
         <v>0</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G44" s="85">
         <v>0</v>
@@ -3721,20 +3721,20 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
@@ -3754,20 +3754,20 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" s="83">
         <v>0</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
@@ -3787,20 +3787,20 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="83">
+        <v>0</v>
+      </c>
+      <c r="F47" s="84" t="s">
         <v>109</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="83">
-        <v>0</v>
-      </c>
-      <c r="F47" s="84" t="s">
-        <v>108</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
@@ -3820,20 +3820,20 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
@@ -3853,20 +3853,20 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" s="83">
         <v>0</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
@@ -3887,7 +3887,7 @@
     <row r="50" ht="24" customHeight="1">
       <c r="C50" s="39"/>
       <c r="D50" s="91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" s="97">
         <v>0</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="52">
       <c r="C52" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -3931,31 +3931,31 @@
     </row>
     <row r="53" ht="24" customHeight="1">
       <c r="A53" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G53" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H53" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I53" s="87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" s="88" t="s">
         <v>30</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="A54" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="81"/>
@@ -3982,27 +3982,27 @@
         <v>1</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" s="93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K54" s="95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
       <c r="A55" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="81"/>
@@ -4013,28 +4013,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G55" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" s="83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" s="93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55" s="95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="C56" s="39"/>
       <c r="D56" s="91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" s="97">
         <v>2</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="C58" s="53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I58" s="60"/>
     </row>
@@ -4069,11 +4069,11 @@
         <v>23</v>
       </c>
       <c r="D59" s="101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E59" s="101"/>
       <c r="F59" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G59" s="101"/>
       <c r="H59" s="101" t="s">
@@ -4109,13 +4109,13 @@
     </row>
     <row r="62" ht="24" customHeight="1">
       <c r="C62" s="113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="109"/>
       <c r="E62" s="109"/>
       <c r="F62" s="112"/>
       <c r="G62" s="114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H62" s="109"/>
       <c r="I62" s="115"/>
@@ -4133,9 +4133,8 @@
       <c r="C64" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="136" t="str">
-        <f>'PROPOSAL'!F37</f>
-        <v>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</v>
+      <c r="D64" s="136" t="s">
+        <v>123</v>
       </c>
       <c r="E64" s="136"/>
       <c r="F64" s="136"/>
@@ -4174,9 +4173,8 @@
       <c r="C66" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="136" t="str">
-        <f>'PROPOSAL'!F39</f>
-        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</v>
+      <c r="D66" s="136" t="s">
+        <v>54</v>
       </c>
       <c r="E66" s="136"/>
       <c r="F66" s="136"/>
@@ -4253,9 +4251,8 @@
       <c r="C70" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="136" t="str">
-        <f>'PROPOSAL'!F43</f>
-        <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
+      <c r="D70" s="136" t="s">
+        <v>124</v>
       </c>
       <c r="E70" s="136"/>
       <c r="F70" s="136"/>
@@ -4294,9 +4291,8 @@
       <c r="C72" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="136" t="str">
-        <f>'PROPOSAL'!F45</f>
-        <v>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</v>
+      <c r="D72" s="136" t="s">
+        <v>125</v>
       </c>
       <c r="E72" s="136"/>
       <c r="F72" s="136"/>
@@ -4373,7 +4369,7 @@
   <dimension ref="A2:P188"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4401,7 +4397,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4425,9 +4421,8 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="134" t="str">
-        <f>'PROPOSAL'!F39</f>
-        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</v>
+      <c r="D5" s="134" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
@@ -4447,22 +4442,22 @@
     </row>
     <row r="7">
       <c r="B7" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="139"/>
       <c r="E7" s="139"/>
       <c r="F7" s="140"/>
       <c r="G7" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="139"/>
       <c r="I7" s="139"/>
       <c r="J7" s="140"/>
       <c r="K7" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="139"/>
       <c r="M7" s="139"/>
@@ -4517,7 +4512,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="63">
         <v>0</v>
@@ -4705,7 +4700,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="70">
         <v>0</v>
@@ -4752,7 +4747,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
@@ -4765,13 +4760,13 @@
       <c r="K14" s="131"/>
       <c r="L14" s="132"/>
       <c r="M14" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O14" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="130">
         <v>7</v>
@@ -4779,22 +4774,22 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="139"/>
       <c r="E16" s="139"/>
       <c r="F16" s="140"/>
       <c r="G16" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="139"/>
       <c r="I16" s="139"/>
       <c r="J16" s="140"/>
       <c r="K16" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="139"/>
       <c r="M16" s="139"/>
@@ -4849,7 +4844,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63">
         <v>0</v>
@@ -5037,7 +5032,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70">
         <v>0</v>
@@ -5084,7 +5079,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
@@ -5098,10 +5093,10 @@
       <c r="L23" s="132"/>
       <c r="M23" s="132"/>
       <c r="N23" s="132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
@@ -5109,22 +5104,22 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="139"/>
       <c r="E25" s="139"/>
       <c r="F25" s="140"/>
       <c r="G25" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
       <c r="J25" s="140"/>
       <c r="K25" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="139"/>
       <c r="M25" s="139"/>
@@ -5179,7 +5174,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="63">
         <v>0</v>
@@ -5367,7 +5362,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="70">
         <v>0</v>
@@ -5414,7 +5409,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="132"/>
@@ -5427,13 +5422,13 @@
       <c r="K32" s="131"/>
       <c r="L32" s="132"/>
       <c r="M32" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N32" s="132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O32" s="133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P32" s="130">
         <v>11</v>
@@ -5441,22 +5436,22 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="139"/>
       <c r="E34" s="139"/>
       <c r="F34" s="140"/>
       <c r="G34" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
       <c r="J34" s="140"/>
       <c r="K34" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="139"/>
       <c r="M34" s="139"/>
@@ -5511,7 +5506,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="63">
         <v>0</v>
@@ -5699,7 +5694,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="70">
         <v>0</v>
@@ -5746,7 +5741,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="132"/>
@@ -5759,13 +5754,13 @@
       <c r="K41" s="131"/>
       <c r="L41" s="132"/>
       <c r="M41" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N41" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O41" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P41" s="130">
         <v>7</v>
@@ -5773,22 +5768,22 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="139"/>
       <c r="E43" s="139"/>
       <c r="F43" s="140"/>
       <c r="G43" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="139"/>
       <c r="I43" s="139"/>
       <c r="J43" s="140"/>
       <c r="K43" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="139"/>
       <c r="M43" s="139"/>
@@ -5843,7 +5838,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="63">
         <v>0</v>
@@ -6031,7 +6026,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="70">
         <v>0</v>
@@ -6078,7 +6073,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="132"/>
@@ -6092,10 +6087,10 @@
       <c r="L50" s="132"/>
       <c r="M50" s="132"/>
       <c r="N50" s="132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O50" s="133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P50" s="130">
         <v>7</v>
@@ -6103,22 +6098,22 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="139"/>
       <c r="E52" s="139"/>
       <c r="F52" s="140"/>
       <c r="G52" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="139"/>
       <c r="I52" s="139"/>
       <c r="J52" s="140"/>
       <c r="K52" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="139"/>
       <c r="M52" s="139"/>
@@ -6173,7 +6168,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="63">
         <v>0</v>
@@ -6361,7 +6356,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="70">
         <v>0</v>
@@ -6408,7 +6403,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="131"/>
       <c r="D59" s="132"/>
@@ -6421,13 +6416,13 @@
       <c r="K59" s="131"/>
       <c r="L59" s="132"/>
       <c r="M59" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N59" s="132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P59" s="130">
         <v>11</v>
@@ -6435,22 +6430,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
       <c r="G61" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="139"/>
       <c r="I61" s="139"/>
       <c r="J61" s="140"/>
       <c r="K61" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" s="139"/>
       <c r="M61" s="139"/>
@@ -6505,7 +6500,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="63">
         <v>0</v>
@@ -6693,7 +6688,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -6740,7 +6735,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="132"/>
@@ -6753,13 +6748,13 @@
       <c r="K68" s="131"/>
       <c r="L68" s="132"/>
       <c r="M68" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N68" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O68" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P68" s="130">
         <v>7</v>
@@ -6767,22 +6762,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="139"/>
       <c r="E70" s="139"/>
       <c r="F70" s="140"/>
       <c r="G70" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="139"/>
       <c r="I70" s="139"/>
       <c r="J70" s="140"/>
       <c r="K70" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" s="139"/>
       <c r="M70" s="139"/>
@@ -6837,7 +6832,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="63">
         <v>0</v>
@@ -7025,7 +7020,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -7072,7 +7067,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="132"/>
@@ -7086,10 +7081,10 @@
       <c r="L77" s="132"/>
       <c r="M77" s="132"/>
       <c r="N77" s="132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O77" s="133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
@@ -7097,22 +7092,22 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79" s="139"/>
       <c r="E79" s="139"/>
       <c r="F79" s="140"/>
       <c r="G79" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H79" s="139"/>
       <c r="I79" s="139"/>
       <c r="J79" s="140"/>
       <c r="K79" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L79" s="139"/>
       <c r="M79" s="139"/>
@@ -7167,7 +7162,7 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="B81" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="63">
         <v>0</v>
@@ -7355,7 +7350,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -7402,7 +7397,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="132"/>
@@ -7415,13 +7410,13 @@
       <c r="K86" s="131"/>
       <c r="L86" s="132"/>
       <c r="M86" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N86" s="132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O86" s="133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P86" s="130">
         <v>11</v>
@@ -7429,22 +7424,22 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C88" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" s="139"/>
       <c r="E88" s="139"/>
       <c r="F88" s="140"/>
       <c r="G88" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H88" s="139"/>
       <c r="I88" s="139"/>
       <c r="J88" s="140"/>
       <c r="K88" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L88" s="139"/>
       <c r="M88" s="139"/>
@@ -7499,7 +7494,7 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="B90" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="63"/>
       <c r="D90" s="64"/>
@@ -7560,16 +7555,16 @@
       <c r="K92" s="66"/>
       <c r="L92" s="36"/>
       <c r="M92" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O92" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -7587,21 +7582,21 @@
       <c r="K93" s="73"/>
       <c r="L93" s="38"/>
       <c r="M93" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N93" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O93" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P93" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="70"/>
       <c r="D94" s="71"/>
@@ -7614,21 +7609,21 @@
       <c r="K94" s="70"/>
       <c r="L94" s="71"/>
       <c r="M94" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N94" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O94" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P94" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="131"/>
       <c r="D95" s="132"/>
@@ -7647,23 +7642,23 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C97" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="139"/>
       <c r="K97" s="140"/>
       <c r="L97" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M97" s="139"/>
       <c r="N97" s="139"/>
@@ -7717,7 +7712,7 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="B99" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="63">
         <v>0.04</v>
@@ -7905,7 +7900,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="70">
         <v>40000</v>
@@ -7952,11 +7947,11 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E104" s="132"/>
       <c r="F104" s="132"/>
@@ -7975,23 +7970,23 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="139"/>
       <c r="K106" s="140"/>
       <c r="L106" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M106" s="139"/>
       <c r="N106" s="139"/>
@@ -8045,7 +8040,7 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="B108" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="63">
         <v>0.00039999999999999991</v>
@@ -8233,7 +8228,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="70">
         <v>400</v>
@@ -8280,11 +8275,11 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E113" s="132"/>
       <c r="F113" s="132"/>
@@ -8303,23 +8298,23 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="139"/>
       <c r="K115" s="140"/>
       <c r="L115" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M115" s="139"/>
       <c r="N115" s="139"/>
@@ -8373,7 +8368,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="B117" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="63">
         <v>0.0404</v>
@@ -8561,7 +8556,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="70">
         <v>40400</v>
@@ -8608,11 +8603,11 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E122" s="132"/>
       <c r="F122" s="132"/>
@@ -8631,23 +8626,23 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="139"/>
       <c r="K124" s="140"/>
       <c r="L124" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M124" s="139"/>
       <c r="N124" s="139"/>
@@ -8701,7 +8696,7 @@
     </row>
     <row r="126" ht="24" customHeight="1">
       <c r="B126" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="63">
         <v>0.04</v>
@@ -8889,7 +8884,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C130" s="70">
         <v>40000</v>
@@ -8936,11 +8931,11 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E131" s="132"/>
       <c r="F131" s="132"/>
@@ -8959,23 +8954,23 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="139"/>
       <c r="K133" s="140"/>
       <c r="L133" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M133" s="139"/>
       <c r="N133" s="139"/>
@@ -9029,7 +9024,7 @@
     </row>
     <row r="135" ht="24" customHeight="1">
       <c r="B135" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135" s="63">
         <v>0.099399999999999988</v>
@@ -9217,7 +9212,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="70">
         <v>99400</v>
@@ -9264,11 +9259,11 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E140" s="132"/>
       <c r="F140" s="132"/>
@@ -9287,23 +9282,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -9357,7 +9352,7 @@
     </row>
     <row r="144" ht="24" customHeight="1">
       <c r="B144" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" s="63">
         <v>0.1394</v>
@@ -9545,7 +9540,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C148" s="70">
         <v>139400</v>
@@ -9592,11 +9587,11 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E149" s="132"/>
       <c r="F149" s="132"/>
@@ -9615,23 +9610,23 @@
     </row>
     <row r="151">
       <c r="B151" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -9685,7 +9680,7 @@
     </row>
     <row r="153" ht="24" customHeight="1">
       <c r="B153" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C153" s="63">
         <v>0.02</v>
@@ -9873,7 +9868,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C157" s="70">
         <v>20000</v>
@@ -9920,11 +9915,11 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -9943,23 +9938,23 @@
     </row>
     <row r="160">
       <c r="B160" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -10013,7 +10008,7 @@
     </row>
     <row r="162" ht="24" customHeight="1">
       <c r="B162" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162" s="63">
         <v>0.00019999999999999996</v>
@@ -10201,7 +10196,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="70">
         <v>200</v>
@@ -10248,11 +10243,11 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -10271,23 +10266,23 @@
     </row>
     <row r="169">
       <c r="B169" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -10341,7 +10336,7 @@
     </row>
     <row r="171" ht="24" customHeight="1">
       <c r="B171" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C171" s="63">
         <v>0.0202</v>
@@ -10529,7 +10524,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" s="70">
         <v>20200</v>
@@ -10576,11 +10571,11 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -10599,23 +10594,23 @@
     </row>
     <row r="178">
       <c r="B178" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -10669,7 +10664,7 @@
     </row>
     <row r="180" ht="24" customHeight="1">
       <c r="B180" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" s="63"/>
       <c r="D180" s="64"/>
@@ -10718,10 +10713,10 @@
         <v>28</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D182" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="58"/>
@@ -10735,7 +10730,7 @@
       <c r="N182" s="36"/>
       <c r="O182" s="58"/>
       <c r="P182" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183" ht="24" customHeight="1">
@@ -10743,10 +10738,10 @@
         <v>30</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="74"/>
@@ -10760,18 +10755,18 @@
       <c r="N183" s="38"/>
       <c r="O183" s="74"/>
       <c r="P183" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C184" s="70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D184" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E184" s="71"/>
       <c r="F184" s="72"/>
@@ -10785,12 +10780,12 @@
       <c r="N184" s="71"/>
       <c r="O184" s="72"/>
       <c r="P184" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132"/>
@@ -10977,7 +10972,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -11010,7 +11005,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -11271,7 +11266,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -13527,97 +13522,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -13653,7 +13648,7 @@
   </sheetPr>
   <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -13678,10 +13673,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13716,24 +13711,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -13745,7 +13740,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13765,7 +13760,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -13780,7 +13775,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13791,14 +13786,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13851,14 +13846,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -13911,14 +13906,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -13971,14 +13966,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -14031,14 +14026,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -14091,14 +14086,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -14151,14 +14146,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -14213,7 +14208,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -14266,7 +14261,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -14281,7 +14276,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -14292,14 +14287,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -14352,14 +14347,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -14412,14 +14407,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -14472,14 +14467,14 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -14532,14 +14527,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -14592,14 +14587,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -14652,14 +14647,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -14714,7 +14709,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -14782,7 +14777,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14793,14 +14788,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14853,14 +14848,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -14913,14 +14908,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -14973,14 +14968,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -15033,14 +15028,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -15093,14 +15088,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -15153,14 +15148,14 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -15215,7 +15210,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E35" s="51">
         <v>0</v>
@@ -15273,7 +15268,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="117"/>
       <c r="F37" s="145" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
@@ -15315,7 +15310,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="145" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
@@ -15398,7 +15393,7 @@
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="145" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="G43" s="145"/>
       <c r="H43" s="145"/>
@@ -15440,7 +15435,7 @@
       </c>
       <c r="D45" s="55"/>
       <c r="F45" s="136" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G45" s="136"/>
       <c r="H45" s="136"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1310,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1741,9 +1741,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2486,7 +2483,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4397,7 +4394,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -14860,8 +14857,8 @@
       <c r="E29" s="119">
         <v>0</v>
       </c>
-      <c r="F29" s="120" t="s">
-        <v>38</v>
+      <c r="F29" s="120">
+        <v>0</v>
       </c>
       <c r="G29" s="121">
         <v>200000</v>
@@ -14920,8 +14917,8 @@
       <c r="E30" s="119">
         <v>0</v>
       </c>
-      <c r="F30" s="120" t="s">
-        <v>38</v>
+      <c r="F30" s="120">
+        <v>0</v>
       </c>
       <c r="G30" s="121">
         <v>200000</v>
@@ -14980,8 +14977,8 @@
       <c r="E31" s="119">
         <v>0</v>
       </c>
-      <c r="F31" s="120" t="s">
-        <v>38</v>
+      <c r="F31" s="120">
+        <v>0</v>
       </c>
       <c r="G31" s="121">
         <v>100000</v>
@@ -15040,8 +15037,8 @@
       <c r="E32" s="119">
         <v>0</v>
       </c>
-      <c r="F32" s="120" t="s">
-        <v>38</v>
+      <c r="F32" s="120">
+        <v>0</v>
       </c>
       <c r="G32" s="121">
         <v>1000</v>
@@ -15100,8 +15097,8 @@
       <c r="E33" s="119">
         <v>0</v>
       </c>
-      <c r="F33" s="120" t="s">
-        <v>38</v>
+      <c r="F33" s="120">
+        <v>0</v>
       </c>
       <c r="G33" s="121">
         <v>2000</v>
@@ -15160,8 +15157,8 @@
       <c r="E34" s="119">
         <v>0</v>
       </c>
-      <c r="F34" s="120" t="s">
-        <v>38</v>
+      <c r="F34" s="120">
+        <v>0</v>
       </c>
       <c r="G34" s="121">
         <v>497000</v>
@@ -15261,196 +15258,62 @@
         <v>3345.69</v>
       </c>
     </row>
-    <row r="37" ht="48" customHeight="1">
+    <row r="36" ht="8.1" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+    </row>
+    <row r="37" ht="147" customHeight="1">
       <c r="C37" s="55" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D37" s="55"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="145" t="s">
+      <c r="F37" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-    </row>
-    <row r="38" ht="8.1" customHeight="1">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-    </row>
-    <row r="39" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C39" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="55"/>
-      <c r="F39" s="145" t="s">
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-    </row>
-    <row r="40" ht="8.1" customHeight="1">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-    </row>
-    <row r="41" ht="48" customHeight="1">
-      <c r="C41" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
-      <c r="T41" s="145"/>
-    </row>
-    <row r="42" ht="8.1" customHeight="1">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-    </row>
-    <row r="43" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C43" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="55"/>
-      <c r="F43" s="145" t="s">
+    </row>
+    <row r="43">
+      <c r="F43" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="145"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="145"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="145"/>
-      <c r="T43" s="145"/>
-    </row>
-    <row r="44" ht="8.1" customHeight="1">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-    </row>
-    <row r="45" ht="147" customHeight="1">
-      <c r="C45" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="55"/>
-      <c r="F45" s="136" t="s">
+    </row>
+    <row r="45">
+      <c r="F45" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15458,16 +15321,12 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F39:T39"/>
-    <mergeCell ref="F41:T41"/>
-    <mergeCell ref="F43:T43"/>
-    <mergeCell ref="F45:T45"/>
+    <mergeCell ref="F37:T37"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F37:T37"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:T17"/>
     <mergeCell ref="H27:M27"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -7572,10 +7572,18 @@
       <c r="J95" s="133"/>
       <c r="K95" s="131"/>
       <c r="L95" s="132"/>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="133"/>
-      <c r="P95" s="130"/>
+      <c r="M95" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N95" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="O95" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" s="130">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
@@ -10725,7 +10733,9 @@
         <v>61</v>
       </c>
       <c r="C185" s="131"/>
-      <c r="D185" s="132"/>
+      <c r="D185" s="132" t="s">
+        <v>87</v>
+      </c>
       <c r="E185" s="132"/>
       <c r="F185" s="132"/>
       <c r="G185" s="131"/>
@@ -10737,7 +10747,9 @@
       <c r="M185" s="132"/>
       <c r="N185" s="132"/>
       <c r="O185" s="133"/>
-      <c r="P185" s="130"/>
+      <c r="P185" s="130">
+        <v>5</v>
+      </c>
     </row>
     <row r="188" ht="24" customHeight="1">
       <c r="P188" s="60"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -408,7 +408,7 @@
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
   </si>
   <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
+    <t>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/10/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -829,7 +829,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/10/20</t>
+    <t>Created 03/12/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4334,7 +4334,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -420,16 +420,7 @@
     <t>1Q '20 Totals</t>
   </si>
   <si>
-    <t>15 eq.</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>45 eq.</t>
-  </si>
-  <si>
-    <t>60 eq.</t>
   </si>
   <si>
     <t>Q2 2020</t>
@@ -444,6 +435,15 @@
     <t>2Q '20 Totals</t>
   </si>
   <si>
+    <t>15 eq.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60 eq.</t>
+  </si>
+  <si>
     <t>Contract Totals</t>
   </si>
   <si>
@@ -454,6 +454,25 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">EF: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Program Includes CRIME DAYTIME ROTATOR, CRIME EARLY FRINGE ROTATOR, CRIME LATE FRINGE ROTATOR, CRIME ROTATOR, EARLY &amp; LATE FRINGE ROTATOR, WEEKEND EARLY FRINGE &amp; ACCESS ROTATOR (Plan ID 1853)</d:t>
+    </d:r>
   </si>
   <si>
     <t>3/15/20, 3/19-3/21/20, 3/26-3/29/20, 4/8-4/11/20</t>
@@ -877,7 +896,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 07/28/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -889,7 +908,7 @@
     <t>03/14/20 - 04/12/20</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:15 eq., :30, :45 eq., :60 eq.</t>
@@ -1356,441 +1375,441 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="147">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2443,9 +2462,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T118"/>
+  <dimension ref="A2:T107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2490,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 07/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2520,7 +2539,7 @@
       <c r="F5" s="134"/>
       <c r="G5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="H5" s="76" t="str">
         <f>'PROPOSAL'!L5</f>
@@ -3899,7 +3918,7 @@
         <v>43899</v>
       </c>
       <c r="E49" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F49" s="84" t="s">
         <v>128</v>
@@ -3927,13 +3946,13 @@
       <c r="B50" s="4"/>
       <c r="C50" s="81"/>
       <c r="D50" s="82">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="E50" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="85" t="s">
         <v>83</v>
@@ -3958,13 +3977,13 @@
       <c r="B51" s="4"/>
       <c r="C51" s="81"/>
       <c r="D51" s="82">
-        <v>43899</v>
+        <v>43913</v>
       </c>
       <c r="E51" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" s="85" t="s">
         <v>83</v>
@@ -3983,397 +4002,415 @@
       </c>
     </row>
     <row r="52" ht="24" customHeight="1">
-      <c r="A52" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82">
-        <v>43899</v>
-      </c>
-      <c r="E52" s="83">
-        <v>1</v>
-      </c>
-      <c r="F52" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G52" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J52" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K52" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" ht="24" customHeight="1">
-      <c r="A53" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82">
-        <v>43906</v>
-      </c>
-      <c r="E53" s="83">
-        <v>1</v>
-      </c>
-      <c r="F53" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K53" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" ht="24" customHeight="1">
-      <c r="A54" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82">
-        <v>43906</v>
-      </c>
-      <c r="E54" s="83">
-        <v>1</v>
-      </c>
-      <c r="F54" s="84" t="s">
+      <c r="C52" s="39"/>
+      <c r="D52" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="97">
+        <v>400</v>
+      </c>
+      <c r="F52" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I54" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K54" s="95" t="s">
-        <v>83</v>
-      </c>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
     </row>
     <row r="55" ht="24" customHeight="1">
       <c r="A55" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="82">
-        <v>43906</v>
-      </c>
-      <c r="E55" s="83">
-        <v>1</v>
-      </c>
-      <c r="F55" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K55" s="95" t="s">
-        <v>83</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="J55" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="A56" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82">
-        <v>43906</v>
+      <c r="C56" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>130</v>
       </c>
       <c r="E56" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I56" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J56" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K56" s="95" t="s">
-        <v>83</v>
+        <v>118</v>
+      </c>
+      <c r="G56" s="85">
+        <v>0</v>
+      </c>
+      <c r="H56" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I56" s="83">
+        <v>0</v>
+      </c>
+      <c r="J56" s="93">
+        <v>528</v>
+      </c>
+      <c r="K56" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
       <c r="A57" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="82">
-        <v>43913</v>
+      <c r="C57" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>130</v>
       </c>
       <c r="E57" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J57" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K57" s="95" t="s">
-        <v>83</v>
+        <v>120</v>
+      </c>
+      <c r="G57" s="85">
+        <v>0</v>
+      </c>
+      <c r="H57" s="85">
+        <v>13600</v>
+      </c>
+      <c r="I57" s="83">
+        <v>0</v>
+      </c>
+      <c r="J57" s="93">
+        <v>544</v>
+      </c>
+      <c r="K57" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="A58" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="82">
-        <v>43913</v>
+      <c r="C58" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>130</v>
       </c>
       <c r="E58" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I58" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J58" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58" s="95" t="s">
-        <v>83</v>
+        <v>121</v>
+      </c>
+      <c r="G58" s="85">
+        <v>0</v>
+      </c>
+      <c r="H58" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I58" s="83">
+        <v>0</v>
+      </c>
+      <c r="J58" s="93">
+        <v>1600</v>
+      </c>
+      <c r="K58" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="82">
-        <v>43913</v>
+      <c r="C59" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>130</v>
       </c>
       <c r="E59" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I59" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59" s="95" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="G59" s="85">
+        <v>0</v>
+      </c>
+      <c r="H59" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I59" s="83">
+        <v>0</v>
+      </c>
+      <c r="J59" s="93">
+        <v>528</v>
+      </c>
+      <c r="K59" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24" customHeight="1">
       <c r="A60" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="83">
+        <v>0</v>
+      </c>
+      <c r="F60" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="85">
+        <v>0</v>
+      </c>
+      <c r="H60" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I60" s="83">
+        <v>0</v>
+      </c>
+      <c r="J60" s="93">
+        <v>528</v>
+      </c>
+      <c r="K60" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="24" customHeight="1">
+      <c r="A61" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="82">
-        <v>43913</v>
-      </c>
-      <c r="E60" s="83">
-        <v>1</v>
-      </c>
-      <c r="F60" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I60" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J60" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K60" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" ht="24" customHeight="1">
-      <c r="C61" s="39"/>
-      <c r="D61" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="97">
-        <v>12</v>
-      </c>
-      <c r="F61" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" s="98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="83">
+        <v>0</v>
+      </c>
+      <c r="F61" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="85">
+        <v>0</v>
+      </c>
+      <c r="H61" s="85">
+        <v>13600</v>
+      </c>
+      <c r="I61" s="83">
+        <v>0</v>
+      </c>
+      <c r="J61" s="93">
+        <v>544</v>
+      </c>
+      <c r="K61" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="24" customHeight="1">
+      <c r="A62" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="83">
+        <v>0</v>
+      </c>
+      <c r="F62" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="85">
+        <v>0</v>
+      </c>
+      <c r="H62" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I62" s="83">
+        <v>0</v>
+      </c>
+      <c r="J62" s="93">
+        <v>1600</v>
+      </c>
+      <c r="K62" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24" customHeight="1">
+      <c r="A63" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="83">
+        <v>0</v>
+      </c>
+      <c r="F63" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="85">
+        <v>0</v>
+      </c>
+      <c r="H63" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I63" s="83">
+        <v>0</v>
+      </c>
+      <c r="J63" s="93">
+        <v>528</v>
+      </c>
+      <c r="K63" s="95">
+        <v>25</v>
+      </c>
     </row>
     <row r="64" ht="24" customHeight="1">
       <c r="A64" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J64" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="K64" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
+        <v>115</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="83">
+        <v>0</v>
+      </c>
+      <c r="F64" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" s="85">
+        <v>0</v>
+      </c>
+      <c r="H64" s="85">
+        <v>6600</v>
+      </c>
+      <c r="I64" s="83">
+        <v>0</v>
+      </c>
+      <c r="J64" s="93">
+        <v>264</v>
+      </c>
+      <c r="K64" s="95">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="A65" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D65" s="82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E65" s="83">
         <v>0</v>
       </c>
       <c r="F65" s="84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G65" s="85">
         <v>0</v>
       </c>
       <c r="H65" s="85">
-        <v>13200</v>
+        <v>6800</v>
       </c>
       <c r="I65" s="83">
         <v>0</v>
       </c>
       <c r="J65" s="93">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="K65" s="95">
         <v>25</v>
@@ -4381,32 +4418,32 @@
     </row>
     <row r="66" ht="24" customHeight="1">
       <c r="A66" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E66" s="83">
         <v>0</v>
       </c>
       <c r="F66" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G66" s="85">
         <v>0</v>
       </c>
       <c r="H66" s="85">
-        <v>13600</v>
+        <v>20000</v>
       </c>
       <c r="I66" s="83">
         <v>0</v>
       </c>
       <c r="J66" s="93">
-        <v>544</v>
+        <v>800</v>
       </c>
       <c r="K66" s="95">
         <v>25</v>
@@ -4414,32 +4451,32 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="A67" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E67" s="83">
         <v>0</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G67" s="85">
         <v>0</v>
       </c>
       <c r="H67" s="85">
-        <v>40000</v>
+        <v>6600</v>
       </c>
       <c r="I67" s="83">
         <v>0</v>
       </c>
       <c r="J67" s="93">
-        <v>1600</v>
+        <v>264</v>
       </c>
       <c r="K67" s="95">
         <v>25</v>
@@ -4447,20 +4484,20 @@
     </row>
     <row r="68" ht="24" customHeight="1">
       <c r="A68" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="81" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E68" s="83">
         <v>0</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G68" s="85">
         <v>0</v>
@@ -4480,32 +4517,32 @@
     </row>
     <row r="69" ht="24" customHeight="1">
       <c r="A69" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="81" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D69" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E69" s="83">
         <v>0</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G69" s="85">
         <v>0</v>
       </c>
       <c r="H69" s="85">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="I69" s="83">
         <v>0</v>
       </c>
       <c r="J69" s="93">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="K69" s="95">
         <v>25</v>
@@ -4513,32 +4550,32 @@
     </row>
     <row r="70" ht="24" customHeight="1">
       <c r="A70" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="81" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E70" s="83">
         <v>0</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G70" s="85">
         <v>0</v>
       </c>
       <c r="H70" s="85">
-        <v>13600</v>
+        <v>40000</v>
       </c>
       <c r="I70" s="83">
         <v>0</v>
       </c>
       <c r="J70" s="93">
-        <v>544</v>
+        <v>1600</v>
       </c>
       <c r="K70" s="95">
         <v>25</v>
@@ -4546,32 +4583,32 @@
     </row>
     <row r="71" ht="24" customHeight="1">
       <c r="A71" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="81" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E71" s="83">
         <v>0</v>
       </c>
       <c r="F71" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G71" s="85">
         <v>0</v>
       </c>
       <c r="H71" s="85">
-        <v>40000</v>
+        <v>13200</v>
       </c>
       <c r="I71" s="83">
         <v>0</v>
       </c>
       <c r="J71" s="93">
-        <v>1600</v>
+        <v>528</v>
       </c>
       <c r="K71" s="95">
         <v>25</v>
@@ -4579,20 +4616,20 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="A72" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="81" t="s">
         <v>123</v>
       </c>
       <c r="D72" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E72" s="83">
         <v>0</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G72" s="85">
         <v>0</v>
@@ -4612,32 +4649,32 @@
     </row>
     <row r="73" ht="24" customHeight="1">
       <c r="A73" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E73" s="83">
         <v>0</v>
       </c>
       <c r="F73" s="84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G73" s="85">
         <v>0</v>
       </c>
       <c r="H73" s="85">
-        <v>6600</v>
+        <v>13600</v>
       </c>
       <c r="I73" s="83">
         <v>0</v>
       </c>
       <c r="J73" s="93">
-        <v>264</v>
+        <v>544</v>
       </c>
       <c r="K73" s="95">
         <v>25</v>
@@ -4645,32 +4682,32 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="A74" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E74" s="83">
         <v>0</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G74" s="85">
         <v>0</v>
       </c>
       <c r="H74" s="85">
-        <v>6800</v>
+        <v>40000</v>
       </c>
       <c r="I74" s="83">
         <v>0</v>
       </c>
       <c r="J74" s="93">
-        <v>272</v>
+        <v>1600</v>
       </c>
       <c r="K74" s="95">
         <v>25</v>
@@ -4678,32 +4715,32 @@
     </row>
     <row r="75" ht="24" customHeight="1">
       <c r="A75" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E75" s="83">
         <v>0</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G75" s="85">
         <v>0</v>
       </c>
       <c r="H75" s="85">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="I75" s="83">
         <v>0</v>
       </c>
       <c r="J75" s="93">
-        <v>800</v>
+        <v>528</v>
       </c>
       <c r="K75" s="95">
         <v>25</v>
@@ -4711,20 +4748,20 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="A76" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="81" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E76" s="83">
         <v>0</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G76" s="85">
         <v>0</v>
@@ -4744,32 +4781,32 @@
     </row>
     <row r="77" ht="24" customHeight="1">
       <c r="A77" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E77" s="83">
         <v>0</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G77" s="85">
         <v>0</v>
       </c>
       <c r="H77" s="85">
-        <v>13200</v>
+        <v>6800</v>
       </c>
       <c r="I77" s="83">
         <v>0</v>
       </c>
       <c r="J77" s="93">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="K77" s="95">
         <v>25</v>
@@ -4777,32 +4814,32 @@
     </row>
     <row r="78" ht="24" customHeight="1">
       <c r="A78" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E78" s="83">
         <v>0</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G78" s="85">
         <v>0</v>
       </c>
       <c r="H78" s="85">
-        <v>13600</v>
+        <v>20000</v>
       </c>
       <c r="I78" s="83">
         <v>0</v>
       </c>
       <c r="J78" s="93">
-        <v>544</v>
+        <v>800</v>
       </c>
       <c r="K78" s="95">
         <v>25</v>
@@ -4810,964 +4847,607 @@
     </row>
     <row r="79" ht="24" customHeight="1">
       <c r="A79" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="81" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D79" s="82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E79" s="83">
         <v>0</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G79" s="85">
         <v>0</v>
       </c>
       <c r="H79" s="85">
-        <v>40000</v>
+        <v>6600</v>
       </c>
       <c r="I79" s="83">
         <v>0</v>
       </c>
       <c r="J79" s="93">
-        <v>1600</v>
+        <v>264</v>
       </c>
       <c r="K79" s="95">
         <v>25</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1">
-      <c r="A80" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="83">
-        <v>0</v>
-      </c>
-      <c r="F80" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="85">
-        <v>0</v>
-      </c>
-      <c r="H80" s="85">
-        <v>13200</v>
-      </c>
-      <c r="I80" s="83">
-        <v>0</v>
-      </c>
-      <c r="J80" s="93">
-        <v>528</v>
-      </c>
-      <c r="K80" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" ht="24" customHeight="1">
-      <c r="A81" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="83">
-        <v>0</v>
-      </c>
-      <c r="F81" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" s="85">
-        <v>0</v>
-      </c>
-      <c r="H81" s="85">
-        <v>13200</v>
-      </c>
-      <c r="I81" s="83">
-        <v>0</v>
-      </c>
-      <c r="J81" s="93">
-        <v>528</v>
-      </c>
-      <c r="K81" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" ht="24" customHeight="1">
-      <c r="A82" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="83">
-        <v>0</v>
-      </c>
-      <c r="F82" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="85">
-        <v>0</v>
-      </c>
-      <c r="H82" s="85">
-        <v>13600</v>
-      </c>
-      <c r="I82" s="83">
-        <v>0</v>
-      </c>
-      <c r="J82" s="93">
-        <v>544</v>
-      </c>
-      <c r="K82" s="95">
-        <v>25</v>
-      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="97">
+        <v>0</v>
+      </c>
+      <c r="F80" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="89">
+        <v>400000</v>
+      </c>
+      <c r="I80" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="94">
+        <v>16000</v>
+      </c>
+      <c r="K80" s="98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="A83" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="83">
-        <v>0</v>
-      </c>
-      <c r="F83" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="G83" s="85">
-        <v>0</v>
-      </c>
-      <c r="H83" s="85">
-        <v>40000</v>
-      </c>
-      <c r="I83" s="83">
-        <v>0</v>
-      </c>
-      <c r="J83" s="93">
-        <v>1600</v>
-      </c>
-      <c r="K83" s="95">
-        <v>25</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="J83" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="K83" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
     </row>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>134</v>
+      <c r="C84" s="81"/>
+      <c r="D84" s="82">
+        <v>43920</v>
       </c>
       <c r="E84" s="83">
-        <v>0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G84" s="85">
-        <v>0</v>
-      </c>
-      <c r="H84" s="85">
-        <v>13200</v>
-      </c>
-      <c r="I84" s="83">
-        <v>0</v>
-      </c>
-      <c r="J84" s="93">
-        <v>528</v>
-      </c>
-      <c r="K84" s="95">
-        <v>25</v>
+        <v>128</v>
+      </c>
+      <c r="G84" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I84" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K84" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="A85" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="82" t="s">
-        <v>134</v>
+      <c r="C85" s="81"/>
+      <c r="D85" s="82">
+        <v>43920</v>
       </c>
       <c r="E85" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" s="85">
-        <v>0</v>
-      </c>
-      <c r="H85" s="85">
-        <v>6600</v>
-      </c>
-      <c r="I85" s="83">
-        <v>0</v>
-      </c>
-      <c r="J85" s="93">
-        <v>264</v>
-      </c>
-      <c r="K85" s="95">
-        <v>25</v>
+        <v>133</v>
+      </c>
+      <c r="G85" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H85" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K85" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="24" customHeight="1">
       <c r="A86" s="99" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="82" t="s">
+      <c r="C86" s="81"/>
+      <c r="D86" s="82">
+        <v>43920</v>
+      </c>
+      <c r="E86" s="83">
+        <v>1</v>
+      </c>
+      <c r="F86" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="83">
-        <v>0</v>
-      </c>
-      <c r="F86" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="G86" s="85">
-        <v>0</v>
-      </c>
-      <c r="H86" s="85">
-        <v>6800</v>
-      </c>
-      <c r="I86" s="83">
-        <v>0</v>
-      </c>
-      <c r="J86" s="93">
-        <v>272</v>
-      </c>
-      <c r="K86" s="95">
-        <v>25</v>
+      <c r="G86" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I86" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J86" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="87" ht="24" customHeight="1">
       <c r="A87" s="99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>134</v>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82">
+        <v>43920</v>
       </c>
       <c r="E87" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="G87" s="85">
-        <v>0</v>
-      </c>
-      <c r="H87" s="85">
-        <v>20000</v>
-      </c>
-      <c r="I87" s="83">
-        <v>0</v>
-      </c>
-      <c r="J87" s="93">
-        <v>800</v>
-      </c>
-      <c r="K87" s="95">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="G87" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H87" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K87" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="88" ht="24" customHeight="1">
       <c r="A88" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="82">
+        <v>43927</v>
+      </c>
+      <c r="E88" s="83">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="F88" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K88" s="95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" ht="24" customHeight="1">
+      <c r="A89" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="83">
-        <v>0</v>
-      </c>
-      <c r="F88" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G88" s="85">
-        <v>0</v>
-      </c>
-      <c r="H88" s="85">
-        <v>6600</v>
-      </c>
-      <c r="I88" s="83">
-        <v>0</v>
-      </c>
-      <c r="J88" s="93">
-        <v>264</v>
-      </c>
-      <c r="K88" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" ht="24" customHeight="1">
-      <c r="C89" s="39"/>
-      <c r="D89" s="91" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="82">
+        <v>43927</v>
+      </c>
+      <c r="E89" s="83">
+        <v>9</v>
+      </c>
+      <c r="F89" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="97">
-        <v>0</v>
-      </c>
-      <c r="F89" s="90" t="s">
+      <c r="G89" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H89" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89" s="95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" ht="24" customHeight="1">
+      <c r="C90" s="39"/>
+      <c r="D90" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="97">
+        <v>278.66666666666669</v>
+      </c>
+      <c r="F90" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G89" s="96" t="s">
+      <c r="G90" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="89">
-        <v>400000</v>
-      </c>
-      <c r="I89" s="90" t="s">
+      <c r="H90" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J89" s="94">
-        <v>16000</v>
-      </c>
-      <c r="K89" s="98">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="C91" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="60"/>
+      <c r="I90" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="98" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" ht="24" customHeight="1">
-      <c r="A92" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="87" t="s">
+      <c r="C92" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I92" s="60"/>
+    </row>
+    <row r="93" ht="24" customHeight="1">
+      <c r="C93" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" s="87" t="s">
+      <c r="D93" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" s="87" t="s">
+      <c r="E93" s="101"/>
+      <c r="F93" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="J92" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="K92" s="88" t="s">
+      <c r="G93" s="101"/>
+      <c r="H93" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="60"/>
-      <c r="T92" s="60"/>
-    </row>
-    <row r="93" ht="24" customHeight="1">
-      <c r="A93" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E93" s="83">
-        <v>1</v>
-      </c>
-      <c r="F93" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G93" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H93" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I93" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J93" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K93" s="95" t="s">
-        <v>83</v>
-      </c>
+      <c r="I93" s="102"/>
     </row>
     <row r="94" ht="24" customHeight="1">
-      <c r="A94" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E94" s="83">
-        <v>1</v>
-      </c>
-      <c r="F94" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G94" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H94" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I94" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J94" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K94" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" ht="24" customHeight="1">
-      <c r="A95" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E95" s="83">
-        <v>1</v>
-      </c>
-      <c r="F95" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G95" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H95" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I95" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J95" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K95" s="95" t="s">
-        <v>83</v>
-      </c>
+      <c r="C94" s="103">
+        <v>0</v>
+      </c>
+      <c r="D94" s="105">
+        <v>1000000</v>
+      </c>
+      <c r="E94" s="105"/>
+      <c r="F94" s="104">
+        <v>40000</v>
+      </c>
+      <c r="G94" s="104"/>
+      <c r="H94" s="107">
+        <v>25</v>
+      </c>
+      <c r="I94" s="106"/>
+    </row>
+    <row r="95" ht="42.95" customHeight="1">
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="112"/>
+      <c r="G95" s="112"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
     </row>
     <row r="96" ht="24" customHeight="1">
-      <c r="A96" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E96" s="83">
-        <v>1</v>
-      </c>
-      <c r="F96" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G96" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H96" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I96" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J96" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K96" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" ht="24" customHeight="1">
-      <c r="A97" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E97" s="83">
-        <v>1</v>
-      </c>
-      <c r="F97" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G97" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H97" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I97" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J97" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K97" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" ht="24" customHeight="1">
-      <c r="A98" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E98" s="83">
-        <v>1</v>
-      </c>
-      <c r="F98" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G98" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H98" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I98" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J98" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K98" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" ht="24" customHeight="1">
-      <c r="A99" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E99" s="83">
-        <v>1</v>
-      </c>
-      <c r="F99" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G99" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H99" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I99" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J99" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K99" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" ht="24" customHeight="1">
-      <c r="A100" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E100" s="83">
-        <v>1</v>
-      </c>
-      <c r="F100" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G100" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="H100" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I100" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="J100" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K100" s="95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" ht="24" customHeight="1">
-      <c r="C101" s="39"/>
-      <c r="D101" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="97">
-        <v>8</v>
-      </c>
-      <c r="F101" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H101" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="I101" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J101" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="K101" s="98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" ht="24" customHeight="1">
-      <c r="C103" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="I103" s="60"/>
-    </row>
-    <row r="104" ht="24" customHeight="1">
-      <c r="C104" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" s="102"/>
-    </row>
-    <row r="105" ht="24" customHeight="1">
-      <c r="C105" s="103">
-        <v>0</v>
-      </c>
-      <c r="D105" s="105">
-        <v>1000000</v>
-      </c>
-      <c r="E105" s="105"/>
-      <c r="F105" s="104">
-        <v>40000</v>
-      </c>
-      <c r="G105" s="104"/>
-      <c r="H105" s="107">
-        <v>25</v>
-      </c>
-      <c r="I105" s="106"/>
-    </row>
-    <row r="106" ht="42.95" customHeight="1">
-      <c r="C106" s="110"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
-      <c r="F106" s="112"/>
-      <c r="G106" s="112"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
+      <c r="C96" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="109"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="112"/>
+      <c r="G96" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" s="109"/>
+      <c r="I96" s="115"/>
+    </row>
+    <row r="97" ht="39.95" customHeight="1">
+      <c r="C97" s="110"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="112"/>
+      <c r="G97" s="112"/>
+      <c r="H97" s="108"/>
+      <c r="I97" s="108"/>
+    </row>
+    <row r="98" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C98" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="136"/>
+      <c r="F98" s="136"/>
+      <c r="G98" s="136"/>
+      <c r="H98" s="136"/>
+      <c r="I98" s="136"/>
+      <c r="J98" s="136"/>
+      <c r="K98" s="136"/>
+      <c r="L98" s="126"/>
+      <c r="M98" s="126"/>
+      <c r="N98" s="126"/>
+      <c r="O98" s="126"/>
+      <c r="P98" s="126"/>
+      <c r="Q98" s="126"/>
+      <c r="R98" s="126"/>
+    </row>
+    <row r="99" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C99" s="2"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+      <c r="H99" s="127"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="127"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="76"/>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76"/>
+    </row>
+    <row r="100" ht="48" customHeight="1" s="117" customFormat="1">
+      <c r="C100" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="136"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="136"/>
+      <c r="J100" s="136"/>
+      <c r="K100" s="136"/>
+      <c r="L100" s="126"/>
+      <c r="M100" s="126"/>
+      <c r="N100" s="126"/>
+      <c r="O100" s="126"/>
+      <c r="P100" s="126"/>
+      <c r="Q100" s="126"/>
+      <c r="R100" s="126"/>
+    </row>
+    <row r="101" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C101" s="2"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="128"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="118"/>
+      <c r="M101" s="118"/>
+      <c r="N101" s="118"/>
+      <c r="O101" s="118"/>
+      <c r="P101" s="118"/>
+      <c r="Q101" s="118"/>
+      <c r="R101" s="118"/>
+    </row>
+    <row r="102" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C102" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="136"/>
+      <c r="F102" s="136"/>
+      <c r="G102" s="136"/>
+      <c r="H102" s="136"/>
+      <c r="I102" s="136"/>
+      <c r="J102" s="136"/>
+      <c r="K102" s="136"/>
+      <c r="L102" s="126"/>
+      <c r="M102" s="126"/>
+      <c r="N102" s="126"/>
+      <c r="O102" s="126"/>
+      <c r="P102" s="126"/>
+      <c r="Q102" s="126"/>
+      <c r="R102" s="126"/>
+    </row>
+    <row r="103" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C103" s="2"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="118"/>
+      <c r="M103" s="118"/>
+      <c r="N103" s="118"/>
+      <c r="O103" s="118"/>
+      <c r="P103" s="118"/>
+      <c r="Q103" s="118"/>
+      <c r="R103" s="118"/>
+    </row>
+    <row r="104" ht="48.95" customHeight="1" s="117" customFormat="1">
+      <c r="C104" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="136"/>
+      <c r="F104" s="136"/>
+      <c r="G104" s="136"/>
+      <c r="H104" s="136"/>
+      <c r="I104" s="136"/>
+      <c r="J104" s="136"/>
+      <c r="K104" s="136"/>
+      <c r="L104" s="126"/>
+      <c r="M104" s="126"/>
+      <c r="N104" s="126"/>
+      <c r="O104" s="126"/>
+      <c r="P104" s="126"/>
+      <c r="Q104" s="126"/>
+      <c r="R104" s="126"/>
+    </row>
+    <row r="105" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C105" s="2"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
+      <c r="F105" s="128"/>
+      <c r="G105" s="128"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="118"/>
+      <c r="N105" s="118"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="118"/>
+      <c r="Q105" s="118"/>
+      <c r="R105" s="118"/>
+    </row>
+    <row r="106" ht="147" customHeight="1" s="99" customFormat="1">
+      <c r="C106" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="136"/>
+      <c r="F106" s="136"/>
+      <c r="G106" s="136"/>
+      <c r="H106" s="136"/>
+      <c r="I106" s="136"/>
+      <c r="J106" s="136"/>
+      <c r="K106" s="136"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
     </row>
     <row r="107" ht="24" customHeight="1">
-      <c r="C107" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="112"/>
-      <c r="G107" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="H107" s="109"/>
-      <c r="I107" s="115"/>
-    </row>
-    <row r="108" ht="39.95" customHeight="1">
-      <c r="C108" s="110"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="112"/>
-      <c r="G108" s="112"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-    </row>
-    <row r="109" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C109" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="136" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="136"/>
-      <c r="F109" s="136"/>
-      <c r="G109" s="136"/>
-      <c r="H109" s="136"/>
-      <c r="I109" s="136"/>
-      <c r="J109" s="136"/>
-      <c r="K109" s="136"/>
-      <c r="L109" s="126"/>
-      <c r="M109" s="126"/>
-      <c r="N109" s="126"/>
-      <c r="O109" s="126"/>
-      <c r="P109" s="126"/>
-      <c r="Q109" s="126"/>
-      <c r="R109" s="126"/>
-    </row>
-    <row r="110" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C110" s="2"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="127"/>
-      <c r="G110" s="127"/>
-      <c r="H110" s="127"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="127"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-    </row>
-    <row r="111" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C111" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="136"/>
-      <c r="F111" s="136"/>
-      <c r="G111" s="136"/>
-      <c r="H111" s="136"/>
-      <c r="I111" s="136"/>
-      <c r="J111" s="136"/>
-      <c r="K111" s="136"/>
-      <c r="L111" s="126"/>
-      <c r="M111" s="126"/>
-      <c r="N111" s="126"/>
-      <c r="O111" s="126"/>
-      <c r="P111" s="126"/>
-      <c r="Q111" s="126"/>
-      <c r="R111" s="126"/>
-    </row>
-    <row r="112" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C112" s="2"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="128"/>
-      <c r="H112" s="128"/>
-      <c r="I112" s="128"/>
-      <c r="J112" s="128"/>
-      <c r="K112" s="128"/>
-      <c r="L112" s="118"/>
-      <c r="M112" s="118"/>
-      <c r="N112" s="118"/>
-      <c r="O112" s="118"/>
-      <c r="P112" s="118"/>
-      <c r="Q112" s="118"/>
-      <c r="R112" s="118"/>
-    </row>
-    <row r="113" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C113" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" s="136"/>
-      <c r="E113" s="136"/>
-      <c r="F113" s="136"/>
-      <c r="G113" s="136"/>
-      <c r="H113" s="136"/>
-      <c r="I113" s="136"/>
-      <c r="J113" s="136"/>
-      <c r="K113" s="136"/>
-      <c r="L113" s="126"/>
-      <c r="M113" s="126"/>
-      <c r="N113" s="126"/>
-      <c r="O113" s="126"/>
-      <c r="P113" s="126"/>
-      <c r="Q113" s="126"/>
-      <c r="R113" s="126"/>
-    </row>
-    <row r="114" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C114" s="2"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
-      <c r="H114" s="128"/>
-      <c r="I114" s="128"/>
-      <c r="J114" s="128"/>
-      <c r="K114" s="128"/>
-      <c r="L114" s="118"/>
-      <c r="M114" s="118"/>
-      <c r="N114" s="118"/>
-      <c r="O114" s="118"/>
-      <c r="P114" s="118"/>
-      <c r="Q114" s="118"/>
-      <c r="R114" s="118"/>
-    </row>
-    <row r="115" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C115" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="136"/>
-      <c r="F115" s="136"/>
-      <c r="G115" s="136"/>
-      <c r="H115" s="136"/>
-      <c r="I115" s="136"/>
-      <c r="J115" s="136"/>
-      <c r="K115" s="136"/>
-      <c r="L115" s="126"/>
-      <c r="M115" s="126"/>
-      <c r="N115" s="126"/>
-      <c r="O115" s="126"/>
-      <c r="P115" s="126"/>
-      <c r="Q115" s="126"/>
-      <c r="R115" s="126"/>
-    </row>
-    <row r="116" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C116" s="2"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="128"/>
-      <c r="G116" s="128"/>
-      <c r="H116" s="128"/>
-      <c r="I116" s="128"/>
-      <c r="J116" s="128"/>
-      <c r="K116" s="128"/>
-      <c r="L116" s="118"/>
-      <c r="M116" s="118"/>
-      <c r="N116" s="118"/>
-      <c r="O116" s="118"/>
-      <c r="P116" s="118"/>
-      <c r="Q116" s="118"/>
-      <c r="R116" s="118"/>
-    </row>
-    <row r="117" ht="147" customHeight="1" s="99" customFormat="1">
-      <c r="C117" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D117" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="E117" s="136"/>
-      <c r="F117" s="136"/>
-      <c r="G117" s="136"/>
-      <c r="H117" s="136"/>
-      <c r="I117" s="136"/>
-      <c r="J117" s="136"/>
-      <c r="K117" s="136"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="77"/>
-    </row>
-    <row r="118" ht="24" customHeight="1">
-      <c r="D118" s="135"/>
-      <c r="E118" s="135"/>
-      <c r="F118" s="135"/>
-      <c r="G118" s="135"/>
-      <c r="H118" s="135"/>
-      <c r="I118" s="135"/>
-      <c r="J118" s="135"/>
-      <c r="K118" s="135"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="135"/>
+      <c r="F107" s="135"/>
+      <c r="G107" s="135"/>
+      <c r="H107" s="135"/>
+      <c r="I107" s="135"/>
+      <c r="J107" s="135"/>
+      <c r="K107" s="135"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D118:K118"/>
-    <mergeCell ref="D117:K117"/>
-    <mergeCell ref="D109:K109"/>
-    <mergeCell ref="D111:K111"/>
-    <mergeCell ref="D113:K113"/>
-    <mergeCell ref="D115:K115"/>
+    <mergeCell ref="D107:K107"/>
+    <mergeCell ref="D106:K106"/>
+    <mergeCell ref="D98:K98"/>
+    <mergeCell ref="D100:K100"/>
+    <mergeCell ref="D102:K102"/>
+    <mergeCell ref="D104:K104"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:K1048576">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -5837,7 +5517,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 07/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -5855,7 +5535,7 @@
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="B5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="76" t="str">
         <f>'PROPOSAL'!N5</f>
@@ -10948,16 +10628,16 @@
       <c r="K145" s="67"/>
       <c r="L145" s="37"/>
       <c r="M145" s="37">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="N145" s="37">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="O145" s="59">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="P145" s="59">
-        <v>3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
@@ -16084,10 +15764,10 @@
         <v>23</v>
       </c>
       <c r="C289" s="67">
-        <v>1</v>
+        <v>136.33333333333334</v>
       </c>
       <c r="D289" s="37">
-        <v>1</v>
+        <v>142.33333333333334</v>
       </c>
       <c r="E289" s="37"/>
       <c r="F289" s="59"/>
@@ -16101,7 +15781,7 @@
       <c r="N289" s="37"/>
       <c r="O289" s="59"/>
       <c r="P289" s="59">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="290" ht="24" customHeight="1">
@@ -16665,13 +16345,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="47" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="43" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="45" t="s">
@@ -16691,13 +16371,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="47" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="43" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -16922,13 +16602,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="47" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="43" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="45" t="s">
@@ -16948,13 +16628,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="47" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="43" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -18958,97 +18638,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -19109,10 +18789,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19147,24 +18827,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -19176,7 +18856,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -19211,7 +18891,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -19229,7 +18909,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -19289,7 +18969,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -19304,28 +18984,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J9" s="119">
         <v>0</v>
       </c>
       <c r="K9" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L9" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M9" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N9" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O9" s="122">
         <v>0</v>
       </c>
       <c r="P9" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q9" s="119">
         <v>0</v>
@@ -19337,7 +19017,7 @@
         <v>25</v>
       </c>
       <c r="T9" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -19349,7 +19029,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -19364,28 +19044,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="123">
-        <v>2.7009600000000002</v>
+        <v>1.1621822894493223</v>
       </c>
       <c r="J10" s="119">
         <v>0</v>
       </c>
       <c r="K10" s="119">
-        <v>3264</v>
+        <v>1405.6847545219637</v>
       </c>
       <c r="L10" s="124">
-        <v>12.5</v>
+        <v>29.025000000000077</v>
       </c>
       <c r="M10" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007071</v>
       </c>
       <c r="N10" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O10" s="122">
         <v>0</v>
       </c>
       <c r="P10" s="123">
-        <v>10.2</v>
+        <v>0.66911999999999994</v>
       </c>
       <c r="Q10" s="119">
         <v>0</v>
@@ -19397,7 +19077,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -19409,7 +19089,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -19424,28 +19104,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J11" s="119">
         <v>0</v>
       </c>
       <c r="K11" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L11" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M11" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N11" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O11" s="122">
         <v>0</v>
       </c>
       <c r="P11" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q11" s="119">
         <v>0</v>
@@ -19457,7 +19137,7 @@
         <v>25</v>
       </c>
       <c r="T11" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -19469,7 +19149,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -19484,28 +19164,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J12" s="119">
         <v>0</v>
       </c>
       <c r="K12" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L12" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M12" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N12" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O12" s="122">
         <v>0</v>
       </c>
       <c r="P12" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q12" s="119">
         <v>0</v>
@@ -19517,7 +19197,7 @@
         <v>25</v>
       </c>
       <c r="T12" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -19529,7 +19209,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -19544,28 +19224,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J13" s="119">
         <v>0</v>
       </c>
       <c r="K13" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L13" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M13" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N13" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O13" s="122">
         <v>0</v>
       </c>
       <c r="P13" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q13" s="119">
         <v>0</v>
@@ -19577,7 +19257,7 @@
         <v>25</v>
       </c>
       <c r="T13" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
@@ -19589,7 +19269,7 @@
         <v>123</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -19604,28 +19284,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="123">
-        <v>2.7009600000000002</v>
+        <v>1.1621822894493223</v>
       </c>
       <c r="J14" s="119">
         <v>0</v>
       </c>
       <c r="K14" s="119">
-        <v>3264</v>
+        <v>1405.6847545219637</v>
       </c>
       <c r="L14" s="124">
-        <v>12.5</v>
+        <v>29.025000000000077</v>
       </c>
       <c r="M14" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007071</v>
       </c>
       <c r="N14" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O14" s="122">
         <v>0</v>
       </c>
       <c r="P14" s="123">
-        <v>10.2</v>
+        <v>0.66911999999999994</v>
       </c>
       <c r="Q14" s="119">
         <v>0</v>
@@ -19637,7 +19317,7 @@
         <v>25</v>
       </c>
       <c r="T14" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -19649,7 +19329,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="119">
         <v>0</v>
@@ -19664,28 +19344,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J15" s="119">
         <v>0</v>
       </c>
       <c r="K15" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L15" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M15" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N15" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O15" s="122">
         <v>0</v>
       </c>
       <c r="P15" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q15" s="119">
         <v>0</v>
@@ -19697,7 +19377,7 @@
         <v>25</v>
       </c>
       <c r="T15" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1">
@@ -19709,7 +19389,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E16" s="119">
         <v>0</v>
@@ -19724,28 +19404,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J16" s="119">
         <v>0</v>
       </c>
       <c r="K16" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L16" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M16" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N16" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O16" s="122">
         <v>0</v>
       </c>
       <c r="P16" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q16" s="119">
         <v>0</v>
@@ -19757,7 +19437,7 @@
         <v>25</v>
       </c>
       <c r="T16" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -19769,7 +19449,7 @@
         <v>124</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E17" s="119">
         <v>0</v>
@@ -19784,28 +19464,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="123">
-        <v>1.3107600000000002</v>
+        <v>0.57539917884410086</v>
       </c>
       <c r="J17" s="119">
         <v>0</v>
       </c>
       <c r="K17" s="119">
-        <v>1584</v>
+        <v>695.95782073813712</v>
       </c>
       <c r="L17" s="124">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M17" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N17" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O17" s="122">
         <v>0</v>
       </c>
       <c r="P17" s="123">
-        <v>4.8000000000000007</v>
+        <v>0.32471999999999995</v>
       </c>
       <c r="Q17" s="119">
         <v>0</v>
@@ -19817,7 +19497,7 @@
         <v>25</v>
       </c>
       <c r="T17" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -19829,7 +19509,7 @@
         <v>124</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E18" s="119">
         <v>0</v>
@@ -19844,28 +19524,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="123">
-        <v>1.3504800000000001</v>
+        <v>0.59283551759695241</v>
       </c>
       <c r="J18" s="119">
         <v>0</v>
       </c>
       <c r="K18" s="119">
-        <v>1632</v>
+        <v>717.047451669596</v>
       </c>
       <c r="L18" s="124">
-        <v>12.5</v>
+        <v>28.449999999999992</v>
       </c>
       <c r="M18" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762257</v>
       </c>
       <c r="N18" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O18" s="122">
         <v>0</v>
       </c>
       <c r="P18" s="123">
-        <v>5.1</v>
+        <v>0.33455999999999997</v>
       </c>
       <c r="Q18" s="119">
         <v>0</v>
@@ -19877,7 +19557,7 @@
         <v>25</v>
       </c>
       <c r="T18" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -19889,7 +19569,7 @@
         <v>124</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -19904,28 +19584,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="123">
-        <v>3.9720000000000004</v>
+        <v>1.7436338752851541</v>
       </c>
       <c r="J19" s="119">
         <v>0</v>
       </c>
       <c r="K19" s="119">
-        <v>4800</v>
+        <v>2108.96309314587</v>
       </c>
       <c r="L19" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M19" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762308</v>
       </c>
       <c r="N19" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O19" s="122">
         <v>0</v>
       </c>
       <c r="P19" s="123">
-        <v>15</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q19" s="119">
         <v>0</v>
@@ -19937,7 +19617,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -19949,7 +19629,7 @@
         <v>124</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -19964,28 +19644,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="123">
-        <v>1.3107600000000002</v>
+        <v>0.57539917884410086</v>
       </c>
       <c r="J20" s="119">
         <v>0</v>
       </c>
       <c r="K20" s="119">
-        <v>1584</v>
+        <v>695.95782073813712</v>
       </c>
       <c r="L20" s="124">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M20" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N20" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O20" s="122">
         <v>0</v>
       </c>
       <c r="P20" s="123">
-        <v>4.8000000000000007</v>
+        <v>0.32471999999999995</v>
       </c>
       <c r="Q20" s="119">
         <v>0</v>
@@ -19997,14 +19677,14 @@
         <v>25</v>
       </c>
       <c r="T20" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="B21" s="25"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21" s="51">
         <v>0</v>
@@ -20019,19 +19699,19 @@
         <v>38</v>
       </c>
       <c r="I21" s="80">
-        <v>39.720000000000006</v>
+        <v>17.160000567621164</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K21" s="51">
-        <v>48000</v>
+        <v>20755.39388655014</v>
       </c>
       <c r="L21" s="47">
-        <v>12.5</v>
+        <v>28.9081480833188</v>
       </c>
       <c r="M21" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456035</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>38</v>
@@ -20040,7 +19720,7 @@
         <v>38</v>
       </c>
       <c r="P21" s="80">
-        <v>149.70000000000002</v>
+        <v>9.4199999999999982</v>
       </c>
       <c r="Q21" s="51" t="s">
         <v>38</v>
@@ -20052,12 +19732,12 @@
         <v>25</v>
       </c>
       <c r="T21" s="43">
-        <v>4008.0160320641276</v>
+        <v>63694.267515923581</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="C23" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="7"/>
@@ -20072,7 +19752,7 @@
       <c r="L23" s="139"/>
       <c r="M23" s="140"/>
       <c r="N23" s="138" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O23" s="139"/>
       <c r="P23" s="139"/>
@@ -20090,7 +19770,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>23</v>
@@ -20150,7 +19830,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E25" s="119">
         <v>0</v>
@@ -20165,28 +19845,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J25" s="119">
         <v>0</v>
       </c>
       <c r="K25" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L25" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M25" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N25" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O25" s="122">
         <v>0</v>
       </c>
       <c r="P25" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q25" s="119">
         <v>0</v>
@@ -20198,7 +19878,7 @@
         <v>25</v>
       </c>
       <c r="T25" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -20210,7 +19890,7 @@
         <v>116</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E26" s="119">
         <v>0</v>
@@ -20225,28 +19905,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="123">
-        <v>1.80064</v>
+        <v>0.77478819296621493</v>
       </c>
       <c r="J26" s="119">
         <v>0</v>
       </c>
       <c r="K26" s="119">
-        <v>2176</v>
+        <v>937.12316968130915</v>
       </c>
       <c r="L26" s="124">
-        <v>12.5</v>
+        <v>29.025000000000006</v>
       </c>
       <c r="M26" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006991</v>
       </c>
       <c r="N26" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O26" s="122">
         <v>0</v>
       </c>
       <c r="P26" s="123">
-        <v>6.8</v>
+        <v>0.44607999999999992</v>
       </c>
       <c r="Q26" s="119">
         <v>0</v>
@@ -20258,7 +19938,7 @@
         <v>25</v>
       </c>
       <c r="T26" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -20270,7 +19950,7 @@
         <v>116</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="119">
         <v>0</v>
@@ -20285,28 +19965,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J27" s="119">
         <v>0</v>
       </c>
       <c r="K27" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L27" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M27" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N27" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O27" s="122">
         <v>0</v>
       </c>
       <c r="P27" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q27" s="119">
         <v>0</v>
@@ -20318,7 +19998,7 @@
         <v>25</v>
       </c>
       <c r="T27" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -20330,7 +20010,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E28" s="119">
         <v>0</v>
@@ -20345,28 +20025,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J28" s="119">
         <v>0</v>
       </c>
       <c r="K28" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L28" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M28" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N28" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O28" s="122">
         <v>0</v>
       </c>
       <c r="P28" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q28" s="119">
         <v>0</v>
@@ -20378,7 +20058,7 @@
         <v>25</v>
       </c>
       <c r="T28" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -20390,7 +20070,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -20405,28 +20085,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J29" s="119">
         <v>0</v>
       </c>
       <c r="K29" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L29" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M29" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N29" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O29" s="122">
         <v>0</v>
       </c>
       <c r="P29" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q29" s="119">
         <v>0</v>
@@ -20438,7 +20118,7 @@
         <v>25</v>
       </c>
       <c r="T29" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -20450,7 +20130,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -20465,28 +20145,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="123">
-        <v>1.80064</v>
+        <v>0.77478819296621493</v>
       </c>
       <c r="J30" s="119">
         <v>0</v>
       </c>
       <c r="K30" s="119">
-        <v>2176</v>
+        <v>937.12316968130915</v>
       </c>
       <c r="L30" s="124">
-        <v>12.5</v>
+        <v>29.025000000000006</v>
       </c>
       <c r="M30" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006991</v>
       </c>
       <c r="N30" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O30" s="122">
         <v>0</v>
       </c>
       <c r="P30" s="123">
-        <v>6.8</v>
+        <v>0.44607999999999992</v>
       </c>
       <c r="Q30" s="119">
         <v>0</v>
@@ -20498,7 +20178,7 @@
         <v>25</v>
       </c>
       <c r="T30" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -20510,7 +20190,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -20525,28 +20205,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J31" s="119">
         <v>0</v>
       </c>
       <c r="K31" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L31" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M31" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N31" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O31" s="122">
         <v>0</v>
       </c>
       <c r="P31" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q31" s="119">
         <v>0</v>
@@ -20558,7 +20238,7 @@
         <v>25</v>
       </c>
       <c r="T31" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -20570,7 +20250,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -20585,28 +20265,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J32" s="119">
         <v>0</v>
       </c>
       <c r="K32" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L32" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M32" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N32" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O32" s="122">
         <v>0</v>
       </c>
       <c r="P32" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q32" s="119">
         <v>0</v>
@@ -20618,7 +20298,7 @@
         <v>25</v>
       </c>
       <c r="T32" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -20630,7 +20310,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -20645,28 +20325,28 @@
         <v>0</v>
       </c>
       <c r="I33" s="123">
-        <v>0.87384000000000006</v>
+        <v>0.38359945256273387</v>
       </c>
       <c r="J33" s="119">
         <v>0</v>
       </c>
       <c r="K33" s="119">
-        <v>1056</v>
+        <v>463.97188049209143</v>
       </c>
       <c r="L33" s="124">
-        <v>12.5</v>
+        <v>28.450000000000024</v>
       </c>
       <c r="M33" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N33" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O33" s="122">
         <v>0</v>
       </c>
       <c r="P33" s="123">
-        <v>3.2</v>
+        <v>0.21647999999999998</v>
       </c>
       <c r="Q33" s="119">
         <v>0</v>
@@ -20678,7 +20358,7 @@
         <v>25</v>
       </c>
       <c r="T33" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -20690,7 +20370,7 @@
         <v>124</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -20705,28 +20385,28 @@
         <v>0</v>
       </c>
       <c r="I34" s="123">
-        <v>0.90032</v>
+        <v>0.39522367839796824</v>
       </c>
       <c r="J34" s="119">
         <v>0</v>
       </c>
       <c r="K34" s="119">
-        <v>1088</v>
+        <v>478.03163444639728</v>
       </c>
       <c r="L34" s="124">
-        <v>12.5</v>
+        <v>28.450000000000014</v>
       </c>
       <c r="M34" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762257</v>
       </c>
       <c r="N34" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O34" s="122">
         <v>0</v>
       </c>
       <c r="P34" s="123">
-        <v>3.4</v>
+        <v>0.22303999999999996</v>
       </c>
       <c r="Q34" s="119">
         <v>0</v>
@@ -20738,7 +20418,7 @@
         <v>25</v>
       </c>
       <c r="T34" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -20750,7 +20430,7 @@
         <v>124</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="119">
         <v>0</v>
@@ -20765,28 +20445,28 @@
         <v>0</v>
       </c>
       <c r="I35" s="123">
-        <v>2.648</v>
+        <v>1.1624225835234361</v>
       </c>
       <c r="J35" s="119">
         <v>0</v>
       </c>
       <c r="K35" s="119">
-        <v>3200</v>
+        <v>1405.97539543058</v>
       </c>
       <c r="L35" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M35" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762119</v>
       </c>
       <c r="N35" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O35" s="122">
         <v>0</v>
       </c>
       <c r="P35" s="123">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="Q35" s="119">
         <v>0</v>
@@ -20798,7 +20478,7 @@
         <v>25</v>
       </c>
       <c r="T35" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
@@ -20810,7 +20490,7 @@
         <v>124</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E36" s="119">
         <v>0</v>
@@ -20825,28 +20505,28 @@
         <v>0</v>
       </c>
       <c r="I36" s="123">
-        <v>0.87384000000000006</v>
+        <v>0.38359945256273387</v>
       </c>
       <c r="J36" s="119">
         <v>0</v>
       </c>
       <c r="K36" s="119">
-        <v>1056</v>
+        <v>463.97188049209143</v>
       </c>
       <c r="L36" s="124">
-        <v>12.5</v>
+        <v>28.450000000000024</v>
       </c>
       <c r="M36" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N36" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O36" s="122">
         <v>0</v>
       </c>
       <c r="P36" s="123">
-        <v>3.2</v>
+        <v>0.21647999999999998</v>
       </c>
       <c r="Q36" s="119">
         <v>0</v>
@@ -20858,14 +20538,14 @@
         <v>25</v>
       </c>
       <c r="T36" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="B37" s="25"/>
       <c r="C37" s="39"/>
       <c r="D37" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" s="51">
         <v>0</v>
@@ -20880,19 +20560,19 @@
         <v>38</v>
       </c>
       <c r="I37" s="80">
-        <v>26.480000000000004</v>
+        <v>11.440000378414105</v>
       </c>
       <c r="J37" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K37" s="51">
-        <v>32000</v>
+        <v>13836.929257700092</v>
       </c>
       <c r="L37" s="47">
-        <v>12.5</v>
+        <v>28.908148083318729</v>
       </c>
       <c r="M37" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456137</v>
       </c>
       <c r="N37" s="45" t="s">
         <v>38</v>
@@ -20901,7 +20581,7 @@
         <v>38</v>
       </c>
       <c r="P37" s="80">
-        <v>99.800000000000011</v>
+        <v>6.2799999999999985</v>
       </c>
       <c r="Q37" s="51" t="s">
         <v>38</v>
@@ -20913,7 +20593,7 @@
         <v>25</v>
       </c>
       <c r="T37" s="43">
-        <v>4008.0160320641276</v>
+        <v>63694.267515923581</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -20933,7 +20613,7 @@
       <c r="L39" s="139"/>
       <c r="M39" s="140"/>
       <c r="N39" s="138" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O39" s="139"/>
       <c r="P39" s="139"/>
@@ -20951,7 +20631,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E40" s="40" t="s">
         <v>23</v>
@@ -21011,7 +20691,7 @@
         <v>116</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E41" s="119">
         <v>0</v>
@@ -21026,28 +20706,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J41" s="119">
         <v>0</v>
       </c>
       <c r="K41" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L41" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M41" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N41" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O41" s="122">
         <v>0</v>
       </c>
       <c r="P41" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q41" s="119">
         <v>0</v>
@@ -21059,7 +20739,7 @@
         <v>25</v>
       </c>
       <c r="T41" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1">
@@ -21071,7 +20751,7 @@
         <v>116</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E42" s="119">
         <v>0</v>
@@ -21086,28 +20766,28 @@
         <v>0</v>
       </c>
       <c r="I42" s="123">
-        <v>4.5016</v>
+        <v>1.9369704824155374</v>
       </c>
       <c r="J42" s="119">
         <v>0</v>
       </c>
       <c r="K42" s="119">
-        <v>5440</v>
+        <v>2342.8079242032727</v>
       </c>
       <c r="L42" s="124">
-        <v>12.5</v>
+        <v>29.025000000000038</v>
       </c>
       <c r="M42" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006948</v>
       </c>
       <c r="N42" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O42" s="122">
         <v>0</v>
       </c>
       <c r="P42" s="123">
-        <v>17</v>
+        <v>1.1151999999999998</v>
       </c>
       <c r="Q42" s="119">
         <v>0</v>
@@ -21119,7 +20799,7 @@
         <v>25</v>
       </c>
       <c r="T42" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1">
@@ -21131,7 +20811,7 @@
         <v>116</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" s="119">
         <v>0</v>
@@ -21146,28 +20826,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J43" s="119">
         <v>0</v>
       </c>
       <c r="K43" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L43" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M43" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N43" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O43" s="122">
         <v>0</v>
       </c>
       <c r="P43" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="119">
         <v>0</v>
@@ -21179,7 +20859,7 @@
         <v>25</v>
       </c>
       <c r="T43" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -21191,7 +20871,7 @@
         <v>116</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E44" s="119">
         <v>0</v>
@@ -21206,28 +20886,28 @@
         <v>0</v>
       </c>
       <c r="I44" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J44" s="119">
         <v>0</v>
       </c>
       <c r="K44" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L44" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M44" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N44" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O44" s="122">
         <v>0</v>
       </c>
       <c r="P44" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q44" s="119">
         <v>0</v>
@@ -21239,7 +20919,7 @@
         <v>25</v>
       </c>
       <c r="T44" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1">
@@ -21251,7 +20931,7 @@
         <v>123</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E45" s="119">
         <v>0</v>
@@ -21266,28 +20946,28 @@
         <v>0</v>
       </c>
       <c r="I45" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J45" s="119">
         <v>0</v>
       </c>
       <c r="K45" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L45" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M45" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N45" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O45" s="122">
         <v>0</v>
       </c>
       <c r="P45" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q45" s="119">
         <v>0</v>
@@ -21299,7 +20979,7 @@
         <v>25</v>
       </c>
       <c r="T45" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -21311,7 +20991,7 @@
         <v>123</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E46" s="119">
         <v>0</v>
@@ -21326,28 +21006,28 @@
         <v>0</v>
       </c>
       <c r="I46" s="123">
-        <v>4.5016</v>
+        <v>1.9369704824155374</v>
       </c>
       <c r="J46" s="119">
         <v>0</v>
       </c>
       <c r="K46" s="119">
-        <v>5440</v>
+        <v>2342.8079242032727</v>
       </c>
       <c r="L46" s="124">
-        <v>12.5</v>
+        <v>29.025000000000038</v>
       </c>
       <c r="M46" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006948</v>
       </c>
       <c r="N46" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O46" s="122">
         <v>0</v>
       </c>
       <c r="P46" s="123">
-        <v>17</v>
+        <v>1.1151999999999998</v>
       </c>
       <c r="Q46" s="119">
         <v>0</v>
@@ -21359,7 +21039,7 @@
         <v>25</v>
       </c>
       <c r="T46" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -21371,7 +21051,7 @@
         <v>123</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E47" s="119">
         <v>0</v>
@@ -21386,28 +21066,28 @@
         <v>0</v>
       </c>
       <c r="I47" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J47" s="119">
         <v>0</v>
       </c>
       <c r="K47" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L47" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M47" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N47" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O47" s="122">
         <v>0</v>
       </c>
       <c r="P47" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="119">
         <v>0</v>
@@ -21419,7 +21099,7 @@
         <v>25</v>
       </c>
       <c r="T47" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -21431,7 +21111,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E48" s="119">
         <v>0</v>
@@ -21446,28 +21126,28 @@
         <v>0</v>
       </c>
       <c r="I48" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J48" s="119">
         <v>0</v>
       </c>
       <c r="K48" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L48" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M48" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N48" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O48" s="122">
         <v>0</v>
       </c>
       <c r="P48" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q48" s="119">
         <v>0</v>
@@ -21479,7 +21159,7 @@
         <v>25</v>
       </c>
       <c r="T48" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
@@ -21491,7 +21171,7 @@
         <v>124</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E49" s="119">
         <v>0</v>
@@ -21506,28 +21186,28 @@
         <v>0</v>
       </c>
       <c r="I49" s="123">
-        <v>2.1846</v>
+        <v>0.95899863140683472</v>
       </c>
       <c r="J49" s="119">
         <v>0</v>
       </c>
       <c r="K49" s="119">
-        <v>2640</v>
+        <v>1159.9297012302286</v>
       </c>
       <c r="L49" s="124">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M49" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N49" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O49" s="122">
         <v>0</v>
       </c>
       <c r="P49" s="123">
-        <v>8</v>
+        <v>0.5411999999999999</v>
       </c>
       <c r="Q49" s="119">
         <v>0</v>
@@ -21539,7 +21219,7 @@
         <v>25</v>
       </c>
       <c r="T49" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
@@ -21551,7 +21231,7 @@
         <v>124</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E50" s="119">
         <v>0</v>
@@ -21566,28 +21246,28 @@
         <v>0</v>
       </c>
       <c r="I50" s="123">
-        <v>2.2508</v>
+        <v>0.98805919599492065</v>
       </c>
       <c r="J50" s="119">
         <v>0</v>
       </c>
       <c r="K50" s="119">
-        <v>2720</v>
+        <v>1195.0790861159933</v>
       </c>
       <c r="L50" s="124">
-        <v>12.5</v>
+        <v>28.45000000000007</v>
       </c>
       <c r="M50" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N50" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O50" s="122">
         <v>0</v>
       </c>
       <c r="P50" s="123">
-        <v>8.5</v>
+        <v>0.55759999999999987</v>
       </c>
       <c r="Q50" s="119">
         <v>0</v>
@@ -21599,7 +21279,7 @@
         <v>25</v>
       </c>
       <c r="T50" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1">
@@ -21611,7 +21291,7 @@
         <v>124</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E51" s="119">
         <v>0</v>
@@ -21626,28 +21306,28 @@
         <v>0</v>
       </c>
       <c r="I51" s="123">
-        <v>6.620000000000001</v>
+        <v>2.90605645880859</v>
       </c>
       <c r="J51" s="119">
         <v>0</v>
       </c>
       <c r="K51" s="119">
-        <v>8000</v>
+        <v>3514.9384885764503</v>
       </c>
       <c r="L51" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M51" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762228</v>
       </c>
       <c r="N51" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O51" s="122">
         <v>0</v>
       </c>
       <c r="P51" s="123">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="Q51" s="119">
         <v>0</v>
@@ -21659,7 +21339,7 @@
         <v>25</v>
       </c>
       <c r="T51" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1">
@@ -21671,7 +21351,7 @@
         <v>124</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E52" s="119">
         <v>0</v>
@@ -21686,28 +21366,28 @@
         <v>0</v>
       </c>
       <c r="I52" s="123">
-        <v>2.1846</v>
+        <v>0.95899863140683472</v>
       </c>
       <c r="J52" s="119">
         <v>0</v>
       </c>
       <c r="K52" s="119">
-        <v>2640</v>
+        <v>1159.9297012302286</v>
       </c>
       <c r="L52" s="124">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M52" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N52" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O52" s="122">
         <v>0</v>
       </c>
       <c r="P52" s="123">
-        <v>8</v>
+        <v>0.5411999999999999</v>
       </c>
       <c r="Q52" s="119">
         <v>0</v>
@@ -21719,14 +21399,14 @@
         <v>25</v>
       </c>
       <c r="T52" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1">
       <c r="B53" s="25"/>
       <c r="C53" s="39"/>
       <c r="D53" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="51">
         <v>0</v>
@@ -21741,19 +21421,19 @@
         <v>38</v>
       </c>
       <c r="I53" s="80">
-        <v>66.2</v>
+        <v>28.600000946035269</v>
       </c>
       <c r="J53" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K53" s="51">
-        <v>80000</v>
+        <v>34592.323144250222</v>
       </c>
       <c r="L53" s="47">
-        <v>12.5</v>
+        <v>28.908148083318771</v>
       </c>
       <c r="M53" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456079</v>
       </c>
       <c r="N53" s="45" t="s">
         <v>38</v>
@@ -21762,7 +21442,7 @@
         <v>38</v>
       </c>
       <c r="P53" s="80">
-        <v>249.5</v>
+        <v>15.7</v>
       </c>
       <c r="Q53" s="51" t="s">
         <v>38</v>
@@ -21774,7 +21454,7 @@
         <v>25</v>
       </c>
       <c r="T53" s="43">
-        <v>4008.0160320641276</v>
+        <v>63694.267515923581</v>
       </c>
     </row>
     <row r="55" ht="48" customHeight="1">
@@ -21868,7 +21548,9 @@
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="117"/>
-      <c r="F59" s="145"/>
+      <c r="F59" s="145" t="s">
+        <v>140</v>
+      </c>
       <c r="G59" s="145"/>
       <c r="H59" s="145"/>
       <c r="I59" s="145"/>
@@ -21909,7 +21591,7 @@
       </c>
       <c r="D61" s="55"/>
       <c r="F61" s="145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G61" s="145"/>
       <c r="H61" s="145"/>
@@ -21951,7 +21633,7 @@
       </c>
       <c r="D63" s="55"/>
       <c r="F63" s="136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G63" s="136"/>
       <c r="H63" s="136"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlans.xlsx
@@ -896,7 +896,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 07/28/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 07/28/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2647,19 +2647,19 @@
         <v>117</v>
       </c>
       <c r="E9" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G9" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H9" s="85">
         <v>13200</v>
       </c>
       <c r="I9" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J9" s="93">
         <v>528</v>
@@ -2680,19 +2680,19 @@
         <v>117</v>
       </c>
       <c r="E10" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G10" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H10" s="85">
         <v>13600</v>
       </c>
       <c r="I10" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J10" s="93">
         <v>544</v>
@@ -2713,19 +2713,19 @@
         <v>117</v>
       </c>
       <c r="E11" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G11" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H11" s="85">
         <v>40000</v>
       </c>
       <c r="I11" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J11" s="93">
         <v>1600</v>
@@ -2746,19 +2746,19 @@
         <v>117</v>
       </c>
       <c r="E12" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F12" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G12" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H12" s="85">
         <v>13200</v>
       </c>
       <c r="I12" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J12" s="93">
         <v>528</v>
@@ -2779,19 +2779,19 @@
         <v>117</v>
       </c>
       <c r="E13" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F13" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G13" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H13" s="85">
         <v>13200</v>
       </c>
       <c r="I13" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J13" s="93">
         <v>528</v>
@@ -2812,19 +2812,19 @@
         <v>117</v>
       </c>
       <c r="E14" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F14" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H14" s="85">
         <v>13600</v>
       </c>
       <c r="I14" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J14" s="93">
         <v>544</v>
@@ -2845,19 +2845,19 @@
         <v>117</v>
       </c>
       <c r="E15" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F15" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H15" s="85">
         <v>40000</v>
       </c>
       <c r="I15" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J15" s="93">
         <v>1600</v>
@@ -2878,19 +2878,19 @@
         <v>117</v>
       </c>
       <c r="E16" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H16" s="85">
         <v>13200</v>
       </c>
       <c r="I16" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J16" s="93">
         <v>528</v>
@@ -2911,19 +2911,19 @@
         <v>117</v>
       </c>
       <c r="E17" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F17" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G17" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H17" s="85">
         <v>6600</v>
       </c>
       <c r="I17" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J17" s="93">
         <v>264</v>
@@ -2944,19 +2944,19 @@
         <v>117</v>
       </c>
       <c r="E18" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F18" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H18" s="85">
         <v>6800</v>
       </c>
       <c r="I18" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J18" s="93">
         <v>272</v>
@@ -2977,19 +2977,19 @@
         <v>117</v>
       </c>
       <c r="E19" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H19" s="85">
         <v>20000</v>
       </c>
       <c r="I19" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J19" s="93">
         <v>800</v>
@@ -3010,19 +3010,19 @@
         <v>117</v>
       </c>
       <c r="E20" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F20" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H20" s="85">
         <v>6600</v>
       </c>
       <c r="I20" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J20" s="93">
         <v>264</v>
@@ -3043,19 +3043,19 @@
         <v>125</v>
       </c>
       <c r="E21" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G21" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H21" s="85">
         <v>13200</v>
       </c>
       <c r="I21" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J21" s="93">
         <v>528</v>
@@ -3076,19 +3076,19 @@
         <v>125</v>
       </c>
       <c r="E22" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F22" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G22" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H22" s="85">
         <v>13600</v>
       </c>
       <c r="I22" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J22" s="93">
         <v>544</v>
@@ -3109,19 +3109,19 @@
         <v>125</v>
       </c>
       <c r="E23" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F23" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H23" s="85">
         <v>40000</v>
       </c>
       <c r="I23" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J23" s="93">
         <v>1600</v>
@@ -3142,19 +3142,19 @@
         <v>125</v>
       </c>
       <c r="E24" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F24" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G24" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H24" s="85">
         <v>13200</v>
       </c>
       <c r="I24" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J24" s="93">
         <v>528</v>
@@ -3175,19 +3175,19 @@
         <v>125</v>
       </c>
       <c r="E25" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F25" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G25" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H25" s="85">
         <v>13200</v>
       </c>
       <c r="I25" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J25" s="93">
         <v>528</v>
@@ -3208,19 +3208,19 @@
         <v>125</v>
       </c>
       <c r="E26" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F26" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H26" s="85">
         <v>13600</v>
       </c>
       <c r="I26" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J26" s="93">
         <v>544</v>
@@ -3241,19 +3241,19 @@
         <v>125</v>
       </c>
       <c r="E27" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F27" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G27" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H27" s="85">
         <v>40000</v>
       </c>
       <c r="I27" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J27" s="93">
         <v>1600</v>
@@ -3274,19 +3274,19 @@
         <v>125</v>
       </c>
       <c r="E28" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F28" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G28" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H28" s="85">
         <v>13200</v>
       </c>
       <c r="I28" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J28" s="93">
         <v>528</v>
@@ -3307,19 +3307,19 @@
         <v>125</v>
       </c>
       <c r="E29" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G29" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H29" s="85">
         <v>6600</v>
       </c>
       <c r="I29" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J29" s="93">
         <v>264</v>
@@ -3340,19 +3340,19 @@
         <v>125</v>
       </c>
       <c r="E30" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F30" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H30" s="85">
         <v>6800</v>
       </c>
       <c r="I30" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J30" s="93">
         <v>272</v>
@@ -3373,19 +3373,19 @@
         <v>125</v>
       </c>
       <c r="E31" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F31" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G31" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H31" s="85">
         <v>20000</v>
       </c>
       <c r="I31" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J31" s="93">
         <v>800</v>
@@ -3406,19 +3406,19 @@
         <v>125</v>
       </c>
       <c r="E32" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F32" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G32" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H32" s="85">
         <v>6600</v>
       </c>
       <c r="I32" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J32" s="93">
         <v>264</v>
@@ -3439,19 +3439,19 @@
         <v>126</v>
       </c>
       <c r="E33" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F33" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H33" s="85">
         <v>13200</v>
       </c>
       <c r="I33" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J33" s="93">
         <v>528</v>
@@ -3472,19 +3472,19 @@
         <v>126</v>
       </c>
       <c r="E34" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F34" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H34" s="85">
         <v>13600</v>
       </c>
       <c r="I34" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J34" s="93">
         <v>544</v>
@@ -3505,19 +3505,19 @@
         <v>126</v>
       </c>
       <c r="E35" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F35" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G35" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H35" s="85">
         <v>40000</v>
       </c>
       <c r="I35" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J35" s="93">
         <v>1600</v>
@@ -3538,19 +3538,19 @@
         <v>126</v>
       </c>
       <c r="E36" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F36" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G36" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H36" s="85">
         <v>13200</v>
       </c>
       <c r="I36" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J36" s="93">
         <v>528</v>
@@ -3571,19 +3571,19 @@
         <v>126</v>
       </c>
       <c r="E37" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F37" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H37" s="85">
         <v>13200</v>
       </c>
       <c r="I37" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J37" s="93">
         <v>528</v>
@@ -3604,19 +3604,19 @@
         <v>126</v>
       </c>
       <c r="E38" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F38" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H38" s="85">
         <v>13600</v>
       </c>
       <c r="I38" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J38" s="93">
         <v>544</v>
@@ -3637,19 +3637,19 @@
         <v>126</v>
       </c>
       <c r="E39" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F39" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G39" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H39" s="85">
         <v>40000</v>
       </c>
       <c r="I39" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J39" s="93">
         <v>1600</v>
@@ -3670,19 +3670,19 @@
         <v>126</v>
       </c>
       <c r="E40" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F40" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G40" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H40" s="85">
         <v>13200</v>
       </c>
       <c r="I40" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J40" s="93">
         <v>528</v>
@@ -3703,19 +3703,19 @@
         <v>126</v>
       </c>
       <c r="E41" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F41" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H41" s="85">
         <v>6600</v>
       </c>
       <c r="I41" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J41" s="93">
         <v>264</v>
@@ -3736,19 +3736,19 @@
         <v>126</v>
       </c>
       <c r="E42" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G42" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H42" s="85">
         <v>6800</v>
       </c>
       <c r="I42" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J42" s="93">
         <v>272</v>
@@ -3769,19 +3769,19 @@
         <v>126</v>
       </c>
       <c r="E43" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F43" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G43" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H43" s="85">
         <v>20000</v>
       </c>
       <c r="I43" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J43" s="93">
         <v>800</v>
@@ -3802,19 +3802,19 @@
         <v>126</v>
       </c>
       <c r="E44" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F44" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G44" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H44" s="85">
         <v>6600</v>
       </c>
       <c r="I44" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J44" s="93">
         <v>264</v>
@@ -3829,7 +3829,7 @@
         <v>127</v>
       </c>
       <c r="E45" s="97">
-        <v>0</v>
+        <v>5.0616800000000008</v>
       </c>
       <c r="F45" s="90" t="s">
         <v>38</v>
@@ -4098,19 +4098,19 @@
         <v>130</v>
       </c>
       <c r="E56" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F56" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G56" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H56" s="85">
         <v>13200</v>
       </c>
       <c r="I56" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J56" s="93">
         <v>528</v>
@@ -4131,19 +4131,19 @@
         <v>130</v>
       </c>
       <c r="E57" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F57" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G57" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H57" s="85">
         <v>13600</v>
       </c>
       <c r="I57" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J57" s="93">
         <v>544</v>
@@ -4164,19 +4164,19 @@
         <v>130</v>
       </c>
       <c r="E58" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F58" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G58" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H58" s="85">
         <v>40000</v>
       </c>
       <c r="I58" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J58" s="93">
         <v>1600</v>
@@ -4197,19 +4197,19 @@
         <v>130</v>
       </c>
       <c r="E59" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F59" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G59" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H59" s="85">
         <v>13200</v>
       </c>
       <c r="I59" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J59" s="93">
         <v>528</v>
@@ -4230,19 +4230,19 @@
         <v>130</v>
       </c>
       <c r="E60" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F60" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G60" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H60" s="85">
         <v>13200</v>
       </c>
       <c r="I60" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J60" s="93">
         <v>528</v>
@@ -4263,19 +4263,19 @@
         <v>130</v>
       </c>
       <c r="E61" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F61" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G61" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H61" s="85">
         <v>13600</v>
       </c>
       <c r="I61" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J61" s="93">
         <v>544</v>
@@ -4296,19 +4296,19 @@
         <v>130</v>
       </c>
       <c r="E62" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F62" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G62" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H62" s="85">
         <v>40000</v>
       </c>
       <c r="I62" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J62" s="93">
         <v>1600</v>
@@ -4329,19 +4329,19 @@
         <v>130</v>
       </c>
       <c r="E63" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F63" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G63" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H63" s="85">
         <v>13200</v>
       </c>
       <c r="I63" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J63" s="93">
         <v>528</v>
@@ -4362,19 +4362,19 @@
         <v>130</v>
       </c>
       <c r="E64" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G64" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H64" s="85">
         <v>6600</v>
       </c>
       <c r="I64" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J64" s="93">
         <v>264</v>
@@ -4395,19 +4395,19 @@
         <v>130</v>
       </c>
       <c r="E65" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F65" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G65" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H65" s="85">
         <v>6800</v>
       </c>
       <c r="I65" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J65" s="93">
         <v>272</v>
@@ -4428,19 +4428,19 @@
         <v>130</v>
       </c>
       <c r="E66" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F66" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G66" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H66" s="85">
         <v>20000</v>
       </c>
       <c r="I66" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J66" s="93">
         <v>800</v>
@@ -4461,19 +4461,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F67" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G67" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H67" s="85">
         <v>6600</v>
       </c>
       <c r="I67" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J67" s="93">
         <v>264</v>
@@ -4494,19 +4494,19 @@
         <v>131</v>
       </c>
       <c r="E68" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F68" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G68" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H68" s="85">
         <v>13200</v>
       </c>
       <c r="I68" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J68" s="93">
         <v>528</v>
@@ -4527,19 +4527,19 @@
         <v>131</v>
       </c>
       <c r="E69" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F69" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G69" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H69" s="85">
         <v>13600</v>
       </c>
       <c r="I69" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J69" s="93">
         <v>544</v>
@@ -4560,19 +4560,19 @@
         <v>131</v>
       </c>
       <c r="E70" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F70" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G70" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H70" s="85">
         <v>40000</v>
       </c>
       <c r="I70" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J70" s="93">
         <v>1600</v>
@@ -4593,19 +4593,19 @@
         <v>131</v>
       </c>
       <c r="E71" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F71" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G71" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H71" s="85">
         <v>13200</v>
       </c>
       <c r="I71" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J71" s="93">
         <v>528</v>
@@ -4626,19 +4626,19 @@
         <v>131</v>
       </c>
       <c r="E72" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F72" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G72" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H72" s="85">
         <v>13200</v>
       </c>
       <c r="I72" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J72" s="93">
         <v>528</v>
@@ -4659,19 +4659,19 @@
         <v>131</v>
       </c>
       <c r="E73" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F73" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G73" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H73" s="85">
         <v>13600</v>
       </c>
       <c r="I73" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J73" s="93">
         <v>544</v>
@@ -4692,19 +4692,19 @@
         <v>131</v>
       </c>
       <c r="E74" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F74" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G74" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H74" s="85">
         <v>40000</v>
       </c>
       <c r="I74" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J74" s="93">
         <v>1600</v>
@@ -4725,19 +4725,19 @@
         <v>131</v>
       </c>
       <c r="E75" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F75" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G75" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H75" s="85">
         <v>13200</v>
       </c>
       <c r="I75" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J75" s="93">
         <v>528</v>
@@ -4758,19 +4758,19 @@
         <v>131</v>
       </c>
       <c r="E76" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F76" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G76" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H76" s="85">
         <v>6600</v>
       </c>
       <c r="I76" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J76" s="93">
         <v>264</v>
@@ -4791,19 +4791,19 @@
         <v>131</v>
       </c>
       <c r="E77" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F77" s="84" t="s">
         <v>120</v>
       </c>
       <c r="G77" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H77" s="85">
         <v>6800</v>
       </c>
       <c r="I77" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J77" s="93">
         <v>272</v>
@@ -4824,19 +4824,19 @@
         <v>131</v>
       </c>
       <c r="E78" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F78" s="84" t="s">
         <v>121</v>
       </c>
       <c r="G78" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H78" s="85">
         <v>20000</v>
       </c>
       <c r="I78" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J78" s="93">
         <v>800</v>
@@ -4857,19 +4857,19 @@
         <v>131</v>
       </c>
       <c r="E79" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F79" s="84" t="s">
         <v>122</v>
       </c>
       <c r="G79" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H79" s="85">
         <v>6600</v>
       </c>
       <c r="I79" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J79" s="93">
         <v>264</v>
@@ -4884,7 +4884,7 @@
         <v>132</v>
       </c>
       <c r="E80" s="97">
-        <v>0</v>
+        <v>3.3744533333333342</v>
       </c>
       <c r="F80" s="90" t="s">
         <v>38</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="C94" s="103">
-        <v>0</v>
+        <v>8.4361333333333377</v>
       </c>
       <c r="D94" s="105">
         <v>1000000</v>
@@ -5517,7 +5517,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 07/28/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -5712,16 +5712,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N10" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O10" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P10" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -6044,16 +6044,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="O19" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="P19" s="59">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -6374,16 +6374,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="O28" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="P28" s="59">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -6704,16 +6704,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="N37" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="O37" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="P37" s="59">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -7034,16 +7034,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="N46" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="O46" s="59">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="P46" s="59">
-        <v>0</v>
+        <v>2.0246720000000002</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -7366,16 +7366,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N55" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O55" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P55" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -7698,16 +7698,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="N64" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="O64" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="P64" s="59">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -8028,16 +8028,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="N73" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="O73" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="P73" s="59">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -8358,16 +8358,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="N82" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="O82" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="P82" s="59">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -8688,16 +8688,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="N91" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="O91" s="59">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="P91" s="59">
-        <v>0</v>
+        <v>2.0246720000000002</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="N100" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="O100" s="59">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="P100" s="59">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
@@ -9352,16 +9352,16 @@
         <v>0</v>
       </c>
       <c r="M109" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="N109" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="O109" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="P109" s="59">
-        <v>0</v>
+        <v>0.20908800000000002</v>
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
@@ -9682,16 +9682,16 @@
         <v>0</v>
       </c>
       <c r="M118" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="N118" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="O118" s="59">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="P118" s="59">
-        <v>0</v>
+        <v>0.11097600000000002</v>
       </c>
     </row>
     <row r="119" ht="24" customHeight="1">
@@ -10012,16 +10012,16 @@
         <v>0</v>
       </c>
       <c r="M127" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="N127" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="O127" s="59">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="P127" s="59">
-        <v>0</v>
+        <v>0.052272000000000006</v>
       </c>
     </row>
     <row r="128" ht="24" customHeight="1">
@@ -10342,16 +10342,16 @@
         <v>0</v>
       </c>
       <c r="M136" s="37">
-        <v>0</v>
+        <v>0.33744533333333337</v>
       </c>
       <c r="N136" s="37">
-        <v>0</v>
+        <v>0.33744533333333337</v>
       </c>
       <c r="O136" s="59">
-        <v>0</v>
+        <v>0.33744533333333337</v>
       </c>
       <c r="P136" s="59">
-        <v>0</v>
+        <v>1.0123360000000001</v>
       </c>
     </row>
     <row r="137" ht="24" customHeight="1">
@@ -10870,10 +10870,10 @@
         <v>23</v>
       </c>
       <c r="C154" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D154" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E154" s="37">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="155" ht="24" customHeight="1">
@@ -11198,10 +11198,10 @@
         <v>23</v>
       </c>
       <c r="C163" s="67">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="D163" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="E163" s="37">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="59">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
     </row>
     <row r="164" ht="24" customHeight="1">
@@ -11526,10 +11526,10 @@
         <v>23</v>
       </c>
       <c r="C172" s="67">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="D172" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="E172" s="37">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="59">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="173" ht="24" customHeight="1">
@@ -11854,10 +11854,10 @@
         <v>23</v>
       </c>
       <c r="C181" s="67">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="D181" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="E181" s="37">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
     </row>
     <row r="182" ht="24" customHeight="1">
@@ -12182,10 +12182,10 @@
         <v>23</v>
       </c>
       <c r="C190" s="67">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="D190" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="E190" s="37">
         <v>0</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="59">
-        <v>0</v>
+        <v>1.3497813333333335</v>
       </c>
     </row>
     <row r="191" ht="24" customHeight="1">
@@ -12510,10 +12510,10 @@
         <v>23</v>
       </c>
       <c r="C199" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D199" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E199" s="37">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="200" ht="24" customHeight="1">
@@ -12838,10 +12838,10 @@
         <v>23</v>
       </c>
       <c r="C208" s="67">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="D208" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="E208" s="37">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="59">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
     </row>
     <row r="209" ht="24" customHeight="1">
@@ -13166,10 +13166,10 @@
         <v>23</v>
       </c>
       <c r="C217" s="67">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="D217" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="E217" s="37">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="59">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="218" ht="24" customHeight="1">
@@ -13494,10 +13494,10 @@
         <v>23</v>
       </c>
       <c r="C226" s="67">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="D226" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="E226" s="37">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
     </row>
     <row r="227" ht="24" customHeight="1">
@@ -13822,10 +13822,10 @@
         <v>23</v>
       </c>
       <c r="C235" s="67">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="D235" s="37">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
       <c r="E235" s="37">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="59">
-        <v>0</v>
+        <v>1.3497813333333335</v>
       </c>
     </row>
     <row r="236" ht="24" customHeight="1">
@@ -14150,10 +14150,10 @@
         <v>23</v>
       </c>
       <c r="C244" s="67">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="D244" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="E244" s="37">
         <v>0</v>
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="P244" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
     </row>
     <row r="245" ht="24" customHeight="1">
@@ -14478,10 +14478,10 @@
         <v>23</v>
       </c>
       <c r="C253" s="67">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="D253" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="E253" s="37">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="P253" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
     </row>
     <row r="254" ht="24" customHeight="1">
@@ -14806,10 +14806,10 @@
         <v>23</v>
       </c>
       <c r="C262" s="67">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="D262" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="E262" s="37">
         <v>0</v>
@@ -14845,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="P262" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
     </row>
     <row r="263" ht="24" customHeight="1">
@@ -15134,10 +15134,10 @@
         <v>23</v>
       </c>
       <c r="C271" s="67">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="D271" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="E271" s="37">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="P271" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
     </row>
     <row r="272" ht="24" customHeight="1">
@@ -15462,10 +15462,10 @@
         <v>23</v>
       </c>
       <c r="C280" s="67">
-        <v>0</v>
+        <v>0.33744533333333337</v>
       </c>
       <c r="D280" s="37">
-        <v>0</v>
+        <v>0.33744533333333337</v>
       </c>
       <c r="E280" s="37">
         <v>0</v>
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="P280" s="59">
-        <v>0</v>
+        <v>0.67489066666666675</v>
       </c>
     </row>
     <row r="281" ht="24" customHeight="1">
@@ -18972,22 +18972,22 @@
         <v>133</v>
       </c>
       <c r="E9" s="119">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
       <c r="F9" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G9" s="121">
         <v>39600</v>
       </c>
       <c r="H9" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I9" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J9" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K9" s="119">
         <v>1364.3410852713178</v>
@@ -19002,13 +19002,13 @@
         <v>1.161</v>
       </c>
       <c r="O9" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P9" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q9" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R9" s="119">
         <v>1584</v>
@@ -19032,22 +19032,22 @@
         <v>134</v>
       </c>
       <c r="E10" s="119">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
       <c r="F10" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G10" s="121">
         <v>40800</v>
       </c>
       <c r="H10" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I10" s="123">
         <v>1.1621822894493223</v>
       </c>
       <c r="J10" s="119">
-        <v>0</v>
+        <v>6333.2826670719951</v>
       </c>
       <c r="K10" s="119">
         <v>1405.6847545219637</v>
@@ -19062,13 +19062,13 @@
         <v>1.161</v>
       </c>
       <c r="O10" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P10" s="123">
         <v>0.66911999999999994</v>
       </c>
       <c r="Q10" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R10" s="119">
         <v>1632</v>
@@ -19092,22 +19092,22 @@
         <v>128</v>
       </c>
       <c r="E11" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F11" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G11" s="121">
         <v>120000</v>
       </c>
       <c r="H11" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I11" s="123">
         <v>3.4181832042627129</v>
       </c>
       <c r="J11" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K11" s="119">
         <v>4134.3669250645989</v>
@@ -19122,13 +19122,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O11" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P11" s="123">
         <v>1.7999999999999998</v>
       </c>
       <c r="Q11" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R11" s="119">
         <v>4800</v>
@@ -19152,22 +19152,22 @@
         <v>135</v>
       </c>
       <c r="E12" s="119">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
       <c r="F12" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G12" s="121">
         <v>39600</v>
       </c>
       <c r="H12" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I12" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J12" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K12" s="119">
         <v>1364.3410852713178</v>
@@ -19182,13 +19182,13 @@
         <v>1.161</v>
       </c>
       <c r="O12" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P12" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q12" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R12" s="119">
         <v>1584</v>
@@ -19212,22 +19212,22 @@
         <v>133</v>
       </c>
       <c r="E13" s="119">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
       <c r="F13" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G13" s="121">
         <v>39600</v>
       </c>
       <c r="H13" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I13" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J13" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K13" s="119">
         <v>1364.3410852713178</v>
@@ -19242,13 +19242,13 @@
         <v>1.161</v>
       </c>
       <c r="O13" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P13" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q13" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R13" s="119">
         <v>1584</v>
@@ -19272,22 +19272,22 @@
         <v>134</v>
       </c>
       <c r="E14" s="119">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
       <c r="F14" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G14" s="121">
         <v>40800</v>
       </c>
       <c r="H14" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I14" s="123">
         <v>1.1621822894493223</v>
       </c>
       <c r="J14" s="119">
-        <v>0</v>
+        <v>6333.2826670719951</v>
       </c>
       <c r="K14" s="119">
         <v>1405.6847545219637</v>
@@ -19302,13 +19302,13 @@
         <v>1.161</v>
       </c>
       <c r="O14" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P14" s="123">
         <v>0.66911999999999994</v>
       </c>
       <c r="Q14" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R14" s="119">
         <v>1632</v>
@@ -19332,22 +19332,22 @@
         <v>128</v>
       </c>
       <c r="E15" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F15" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G15" s="121">
         <v>120000</v>
       </c>
       <c r="H15" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I15" s="123">
         <v>3.4181832042627129</v>
       </c>
       <c r="J15" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K15" s="119">
         <v>4134.3669250645989</v>
@@ -19362,13 +19362,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O15" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P15" s="123">
         <v>1.7999999999999998</v>
       </c>
       <c r="Q15" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R15" s="119">
         <v>4800</v>
@@ -19392,22 +19392,22 @@
         <v>135</v>
       </c>
       <c r="E16" s="119">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
       <c r="F16" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G16" s="121">
         <v>39600</v>
       </c>
       <c r="H16" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I16" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J16" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K16" s="119">
         <v>1364.3410852713178</v>
@@ -19422,13 +19422,13 @@
         <v>1.161</v>
       </c>
       <c r="O16" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P16" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q16" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R16" s="119">
         <v>1584</v>
@@ -19452,22 +19452,22 @@
         <v>133</v>
       </c>
       <c r="E17" s="119">
-        <v>0</v>
+        <v>0.20908800000000002</v>
       </c>
       <c r="F17" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G17" s="121">
         <v>19800</v>
       </c>
       <c r="H17" s="122">
-        <v>0</v>
+        <v>2.7519474041748011</v>
       </c>
       <c r="I17" s="123">
         <v>0.57539917884410086</v>
       </c>
       <c r="J17" s="119">
-        <v>0</v>
+        <v>3328.540235394365</v>
       </c>
       <c r="K17" s="119">
         <v>695.95782073813712</v>
@@ -19482,13 +19482,13 @@
         <v>1.138</v>
       </c>
       <c r="O17" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P17" s="123">
         <v>0.32471999999999995</v>
       </c>
       <c r="Q17" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R17" s="119">
         <v>792</v>
@@ -19512,22 +19512,22 @@
         <v>134</v>
       </c>
       <c r="E18" s="119">
-        <v>0</v>
+        <v>0.11097600000000002</v>
       </c>
       <c r="F18" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G18" s="121">
         <v>20400</v>
       </c>
       <c r="H18" s="122">
-        <v>0</v>
+        <v>5.3420155492804957</v>
       </c>
       <c r="I18" s="123">
         <v>0.59283551759695241</v>
       </c>
       <c r="J18" s="119">
-        <v>0</v>
+        <v>6461.2839863537683</v>
       </c>
       <c r="K18" s="119">
         <v>717.047451669596</v>
@@ -19542,13 +19542,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O18" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P18" s="123">
         <v>0.33455999999999997</v>
       </c>
       <c r="Q18" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R18" s="119">
         <v>816</v>
@@ -19572,22 +19572,22 @@
         <v>128</v>
       </c>
       <c r="E19" s="119">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F19" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G19" s="121">
         <v>60000</v>
       </c>
       <c r="H19" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I19" s="123">
         <v>1.7436338752851541</v>
       </c>
       <c r="J19" s="119">
-        <v>0</v>
+        <v>3295.254833040422</v>
       </c>
       <c r="K19" s="119">
         <v>2108.96309314587</v>
@@ -19602,13 +19602,13 @@
         <v>1.138</v>
       </c>
       <c r="O19" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P19" s="123">
         <v>0.89999999999999991</v>
       </c>
       <c r="Q19" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R19" s="119">
         <v>2400</v>
@@ -19632,22 +19632,22 @@
         <v>135</v>
       </c>
       <c r="E20" s="119">
-        <v>0</v>
+        <v>0.052272000000000006</v>
       </c>
       <c r="F20" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G20" s="121">
         <v>19800</v>
       </c>
       <c r="H20" s="122">
-        <v>0</v>
+        <v>11.007789616699204</v>
       </c>
       <c r="I20" s="123">
         <v>0.57539917884410086</v>
       </c>
       <c r="J20" s="119">
-        <v>0</v>
+        <v>13314.16094157746</v>
       </c>
       <c r="K20" s="119">
         <v>695.95782073813712</v>
@@ -19662,13 +19662,13 @@
         <v>1.138</v>
       </c>
       <c r="O20" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P20" s="123">
         <v>0.32471999999999995</v>
       </c>
       <c r="Q20" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R20" s="119">
         <v>792</v>
@@ -19687,7 +19687,7 @@
         <v>168</v>
       </c>
       <c r="E21" s="51">
-        <v>0</v>
+        <v>5.06168</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>38</v>
@@ -19833,22 +19833,22 @@
         <v>133</v>
       </c>
       <c r="E25" s="119">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
       <c r="F25" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G25" s="121">
         <v>26400</v>
       </c>
       <c r="H25" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I25" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J25" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K25" s="119">
         <v>909.56072351421187</v>
@@ -19863,13 +19863,13 @@
         <v>1.161</v>
       </c>
       <c r="O25" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P25" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q25" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R25" s="119">
         <v>1056</v>
@@ -19893,22 +19893,22 @@
         <v>134</v>
       </c>
       <c r="E26" s="119">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
       <c r="F26" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G26" s="121">
         <v>27200</v>
       </c>
       <c r="H26" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I26" s="123">
         <v>0.77478819296621493</v>
       </c>
       <c r="J26" s="119">
-        <v>0</v>
+        <v>6333.282667071996</v>
       </c>
       <c r="K26" s="119">
         <v>937.12316968130915</v>
@@ -19923,13 +19923,13 @@
         <v>1.161</v>
       </c>
       <c r="O26" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P26" s="123">
         <v>0.44607999999999992</v>
       </c>
       <c r="Q26" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R26" s="119">
         <v>1088</v>
@@ -19953,22 +19953,22 @@
         <v>128</v>
       </c>
       <c r="E27" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F27" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G27" s="121">
         <v>80000</v>
       </c>
       <c r="H27" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I27" s="123">
         <v>2.2787888028418086</v>
       </c>
       <c r="J27" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K27" s="119">
         <v>2756.2446167097328</v>
@@ -19983,13 +19983,13 @@
         <v>1.161</v>
       </c>
       <c r="O27" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P27" s="123">
         <v>1.2</v>
       </c>
       <c r="Q27" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R27" s="119">
         <v>3200</v>
@@ -20013,22 +20013,22 @@
         <v>135</v>
       </c>
       <c r="E28" s="119">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F28" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G28" s="121">
         <v>26400</v>
       </c>
       <c r="H28" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I28" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J28" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K28" s="119">
         <v>909.56072351421187</v>
@@ -20043,13 +20043,13 @@
         <v>1.161</v>
       </c>
       <c r="O28" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P28" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q28" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R28" s="119">
         <v>1056</v>
@@ -20073,22 +20073,22 @@
         <v>133</v>
       </c>
       <c r="E29" s="119">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
       <c r="F29" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G29" s="121">
         <v>26400</v>
       </c>
       <c r="H29" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I29" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J29" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K29" s="119">
         <v>909.56072351421187</v>
@@ -20103,13 +20103,13 @@
         <v>1.161</v>
       </c>
       <c r="O29" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P29" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q29" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R29" s="119">
         <v>1056</v>
@@ -20133,22 +20133,22 @@
         <v>134</v>
       </c>
       <c r="E30" s="119">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
       <c r="F30" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G30" s="121">
         <v>27200</v>
       </c>
       <c r="H30" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I30" s="123">
         <v>0.77478819296621493</v>
       </c>
       <c r="J30" s="119">
-        <v>0</v>
+        <v>6333.282667071996</v>
       </c>
       <c r="K30" s="119">
         <v>937.12316968130915</v>
@@ -20163,13 +20163,13 @@
         <v>1.161</v>
       </c>
       <c r="O30" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P30" s="123">
         <v>0.44607999999999992</v>
       </c>
       <c r="Q30" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R30" s="119">
         <v>1088</v>
@@ -20193,22 +20193,22 @@
         <v>128</v>
       </c>
       <c r="E31" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F31" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G31" s="121">
         <v>80000</v>
       </c>
       <c r="H31" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I31" s="123">
         <v>2.2787888028418086</v>
       </c>
       <c r="J31" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K31" s="119">
         <v>2756.2446167097328</v>
@@ -20223,13 +20223,13 @@
         <v>1.161</v>
       </c>
       <c r="O31" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P31" s="123">
         <v>1.2</v>
       </c>
       <c r="Q31" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R31" s="119">
         <v>3200</v>
@@ -20253,22 +20253,22 @@
         <v>135</v>
       </c>
       <c r="E32" s="119">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F32" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G32" s="121">
         <v>26400</v>
       </c>
       <c r="H32" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I32" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J32" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K32" s="119">
         <v>909.56072351421187</v>
@@ -20283,13 +20283,13 @@
         <v>1.161</v>
       </c>
       <c r="O32" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P32" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q32" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R32" s="119">
         <v>1056</v>
@@ -20313,22 +20313,22 @@
         <v>133</v>
       </c>
       <c r="E33" s="119">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F33" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G33" s="121">
         <v>13200</v>
       </c>
       <c r="H33" s="122">
-        <v>0</v>
+        <v>2.7519474041748007</v>
       </c>
       <c r="I33" s="123">
         <v>0.38359945256273387</v>
       </c>
       <c r="J33" s="119">
-        <v>0</v>
+        <v>3328.5402353943655</v>
       </c>
       <c r="K33" s="119">
         <v>463.97188049209143</v>
@@ -20343,13 +20343,13 @@
         <v>1.138</v>
       </c>
       <c r="O33" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P33" s="123">
         <v>0.21647999999999998</v>
       </c>
       <c r="Q33" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R33" s="119">
         <v>528</v>
@@ -20373,22 +20373,22 @@
         <v>134</v>
       </c>
       <c r="E34" s="119">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F34" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G34" s="121">
         <v>13600</v>
       </c>
       <c r="H34" s="122">
-        <v>0</v>
+        <v>5.3420155492804957</v>
       </c>
       <c r="I34" s="123">
         <v>0.39522367839796824</v>
       </c>
       <c r="J34" s="119">
-        <v>0</v>
+        <v>6461.2839863537683</v>
       </c>
       <c r="K34" s="119">
         <v>478.03163444639728</v>
@@ -20403,13 +20403,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O34" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P34" s="123">
         <v>0.22303999999999996</v>
       </c>
       <c r="Q34" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R34" s="119">
         <v>544</v>
@@ -20433,22 +20433,22 @@
         <v>128</v>
       </c>
       <c r="E35" s="119">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F35" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G35" s="121">
         <v>40000</v>
       </c>
       <c r="H35" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I35" s="123">
         <v>1.1624225835234361</v>
       </c>
       <c r="J35" s="119">
-        <v>0</v>
+        <v>3295.2548330404215</v>
       </c>
       <c r="K35" s="119">
         <v>1405.97539543058</v>
@@ -20463,13 +20463,13 @@
         <v>1.138</v>
       </c>
       <c r="O35" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P35" s="123">
         <v>0.6</v>
       </c>
       <c r="Q35" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R35" s="119">
         <v>1600</v>
@@ -20493,22 +20493,22 @@
         <v>135</v>
       </c>
       <c r="E36" s="119">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F36" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G36" s="121">
         <v>13200</v>
       </c>
       <c r="H36" s="122">
-        <v>0</v>
+        <v>11.007789616699203</v>
       </c>
       <c r="I36" s="123">
         <v>0.38359945256273387</v>
       </c>
       <c r="J36" s="119">
-        <v>0</v>
+        <v>13314.160941577462</v>
       </c>
       <c r="K36" s="119">
         <v>463.97188049209143</v>
@@ -20523,13 +20523,13 @@
         <v>1.138</v>
       </c>
       <c r="O36" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P36" s="123">
         <v>0.21647999999999998</v>
       </c>
       <c r="Q36" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R36" s="119">
         <v>528</v>
@@ -20548,7 +20548,7 @@
         <v>168</v>
       </c>
       <c r="E37" s="51">
-        <v>0</v>
+        <v>3.3744533333333337</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>38</v>
@@ -20694,22 +20694,22 @@
         <v>133</v>
       </c>
       <c r="E41" s="119">
-        <v>0</v>
+        <v>0.69696</v>
       </c>
       <c r="F41" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G41" s="121">
         <v>66000</v>
       </c>
       <c r="H41" s="122">
-        <v>0</v>
+        <v>5.3948598552126148</v>
       </c>
       <c r="I41" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J41" s="119">
-        <v>0</v>
+        <v>6525.2003236499349</v>
       </c>
       <c r="K41" s="119">
         <v>2273.9018087855297</v>
@@ -20724,13 +20724,13 @@
         <v>1.161</v>
       </c>
       <c r="O41" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P41" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q41" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R41" s="119">
         <v>2640</v>
@@ -20754,22 +20754,22 @@
         <v>134</v>
       </c>
       <c r="E42" s="119">
-        <v>0</v>
+        <v>0.36992</v>
       </c>
       <c r="F42" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G42" s="121">
         <v>68000</v>
       </c>
       <c r="H42" s="122">
-        <v>0</v>
+        <v>10.47237501305978</v>
       </c>
       <c r="I42" s="123">
         <v>1.9369704824155374</v>
       </c>
       <c r="J42" s="119">
-        <v>0</v>
+        <v>12666.56533414399</v>
       </c>
       <c r="K42" s="119">
         <v>2342.8079242032727</v>
@@ -20784,13 +20784,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O42" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P42" s="123">
         <v>1.1151999999999998</v>
       </c>
       <c r="Q42" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R42" s="119">
         <v>2720</v>
@@ -20814,22 +20814,22 @@
         <v>128</v>
       </c>
       <c r="E43" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F43" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G43" s="121">
         <v>200000</v>
       </c>
       <c r="H43" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I43" s="123">
         <v>5.696972007104522</v>
       </c>
       <c r="J43" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K43" s="119">
         <v>6890.6115417743313</v>
@@ -20844,13 +20844,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O43" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P43" s="123">
         <v>3</v>
       </c>
       <c r="Q43" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R43" s="119">
         <v>8000</v>
@@ -20874,22 +20874,22 @@
         <v>135</v>
       </c>
       <c r="E44" s="119">
-        <v>0</v>
+        <v>0.17424</v>
       </c>
       <c r="F44" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G44" s="121">
         <v>66000</v>
       </c>
       <c r="H44" s="122">
-        <v>0</v>
+        <v>21.579439420850459</v>
       </c>
       <c r="I44" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J44" s="119">
-        <v>0</v>
+        <v>26100.80129459974</v>
       </c>
       <c r="K44" s="119">
         <v>2273.9018087855297</v>
@@ -20904,13 +20904,13 @@
         <v>1.161</v>
       </c>
       <c r="O44" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P44" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q44" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R44" s="119">
         <v>2640</v>
@@ -20934,22 +20934,22 @@
         <v>133</v>
       </c>
       <c r="E45" s="119">
-        <v>0</v>
+        <v>0.69696</v>
       </c>
       <c r="F45" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G45" s="121">
         <v>66000</v>
       </c>
       <c r="H45" s="122">
-        <v>0</v>
+        <v>5.3948598552126148</v>
       </c>
       <c r="I45" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J45" s="119">
-        <v>0</v>
+        <v>6525.2003236499349</v>
       </c>
       <c r="K45" s="119">
         <v>2273.9018087855297</v>
@@ -20964,13 +20964,13 @@
         <v>1.161</v>
       </c>
       <c r="O45" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P45" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q45" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R45" s="119">
         <v>2640</v>
@@ -20994,22 +20994,22 @@
         <v>134</v>
       </c>
       <c r="E46" s="119">
-        <v>0</v>
+        <v>0.36992</v>
       </c>
       <c r="F46" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G46" s="121">
         <v>68000</v>
       </c>
       <c r="H46" s="122">
-        <v>0</v>
+        <v>10.47237501305978</v>
       </c>
       <c r="I46" s="123">
         <v>1.9369704824155374</v>
       </c>
       <c r="J46" s="119">
-        <v>0</v>
+        <v>12666.56533414399</v>
       </c>
       <c r="K46" s="119">
         <v>2342.8079242032727</v>
@@ -21024,13 +21024,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O46" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P46" s="123">
         <v>1.1151999999999998</v>
       </c>
       <c r="Q46" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R46" s="119">
         <v>2720</v>
@@ -21054,22 +21054,22 @@
         <v>128</v>
       </c>
       <c r="E47" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F47" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G47" s="121">
         <v>200000</v>
       </c>
       <c r="H47" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I47" s="123">
         <v>5.696972007104522</v>
       </c>
       <c r="J47" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K47" s="119">
         <v>6890.6115417743313</v>
@@ -21084,13 +21084,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O47" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P47" s="123">
         <v>3</v>
       </c>
       <c r="Q47" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R47" s="119">
         <v>8000</v>
@@ -21114,22 +21114,22 @@
         <v>135</v>
       </c>
       <c r="E48" s="119">
-        <v>0</v>
+        <v>0.17424</v>
       </c>
       <c r="F48" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G48" s="121">
         <v>66000</v>
       </c>
       <c r="H48" s="122">
-        <v>0</v>
+        <v>21.579439420850459</v>
       </c>
       <c r="I48" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J48" s="119">
-        <v>0</v>
+        <v>26100.80129459974</v>
       </c>
       <c r="K48" s="119">
         <v>2273.9018087855297</v>
@@ -21144,13 +21144,13 @@
         <v>1.161</v>
       </c>
       <c r="O48" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P48" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q48" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R48" s="119">
         <v>2640</v>
@@ -21174,22 +21174,22 @@
         <v>133</v>
       </c>
       <c r="E49" s="119">
-        <v>0</v>
+        <v>0.34848</v>
       </c>
       <c r="F49" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G49" s="121">
         <v>33000</v>
       </c>
       <c r="H49" s="122">
-        <v>0</v>
+        <v>5.5038948083496013</v>
       </c>
       <c r="I49" s="123">
         <v>0.95899863140683472</v>
       </c>
       <c r="J49" s="119">
-        <v>0</v>
+        <v>6657.080470788731</v>
       </c>
       <c r="K49" s="119">
         <v>1159.9297012302286</v>
@@ -21204,13 +21204,13 @@
         <v>1.138</v>
       </c>
       <c r="O49" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P49" s="123">
         <v>0.5411999999999999</v>
       </c>
       <c r="Q49" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R49" s="119">
         <v>1320</v>
@@ -21234,22 +21234,22 @@
         <v>134</v>
       </c>
       <c r="E50" s="119">
-        <v>0</v>
+        <v>0.18496</v>
       </c>
       <c r="F50" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G50" s="121">
         <v>34000</v>
       </c>
       <c r="H50" s="122">
-        <v>0</v>
+        <v>10.684031098560991</v>
       </c>
       <c r="I50" s="123">
         <v>0.98805919599492065</v>
       </c>
       <c r="J50" s="119">
-        <v>0</v>
+        <v>12922.567972707537</v>
       </c>
       <c r="K50" s="119">
         <v>1195.0790861159933</v>
@@ -21264,13 +21264,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O50" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P50" s="123">
         <v>0.55759999999999987</v>
       </c>
       <c r="Q50" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R50" s="119">
         <v>1360</v>
@@ -21294,22 +21294,22 @@
         <v>128</v>
       </c>
       <c r="E51" s="119">
-        <v>0</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="F51" s="120">
-        <v>0</v>
+        <v>93749.999999999709</v>
       </c>
       <c r="G51" s="121">
         <v>100000</v>
       </c>
       <c r="H51" s="122">
-        <v>0</v>
+        <v>5.4488558602661064</v>
       </c>
       <c r="I51" s="123">
         <v>2.90605645880859</v>
       </c>
       <c r="J51" s="119">
-        <v>0</v>
+        <v>6590.5096660808431</v>
       </c>
       <c r="K51" s="119">
         <v>3514.9384885764503</v>
@@ -21324,13 +21324,13 @@
         <v>1.138</v>
       </c>
       <c r="O51" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P51" s="123">
         <v>1.5</v>
       </c>
       <c r="Q51" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R51" s="119">
         <v>4000</v>
@@ -21354,22 +21354,22 @@
         <v>135</v>
       </c>
       <c r="E52" s="119">
-        <v>0</v>
+        <v>0.08712</v>
       </c>
       <c r="F52" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G52" s="121">
         <v>33000</v>
       </c>
       <c r="H52" s="122">
-        <v>0</v>
+        <v>22.015579233398405</v>
       </c>
       <c r="I52" s="123">
         <v>0.95899863140683472</v>
       </c>
       <c r="J52" s="119">
-        <v>0</v>
+        <v>26628.321883154924</v>
       </c>
       <c r="K52" s="119">
         <v>1159.9297012302286</v>
@@ -21384,13 +21384,13 @@
         <v>1.138</v>
       </c>
       <c r="O52" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P52" s="123">
         <v>0.5411999999999999</v>
       </c>
       <c r="Q52" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R52" s="119">
         <v>1320</v>
@@ -21409,7 +21409,7 @@
         <v>168</v>
       </c>
       <c r="E53" s="51">
-        <v>0</v>
+        <v>8.4361333333333342</v>
       </c>
       <c r="F53" s="42" t="s">
         <v>38</v>
